--- a/results/case2_apos/data_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_case2_apos_recipe.xlsx
@@ -82,127 +82,127 @@
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519348965661], ["'SUD manufacturing' (unit, GLO, None)", 0.01466648731612479], ["'SUD raw materials' (unit, GLO, None)", 0.002301881215345004], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004261822838180366], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004611509520406858], ["'transport' (ton kilometer, GLO, None)", 1.246916348236333e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280040124826935e-05], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631991921123e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006840084781127945], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461120244902415e-05], ["'MUD raw materials' (unit, GLO, None)", 2.07955929409851e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752088442966528], ["'H200 SU' (unit, GLO, None)", 0.0001034352366171066], ["'autoclave' (unit, GLO, None)", 0.0007704104467311595], ["'transport' (ton kilometer, GLO, None)", 5.100409214895992e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010474127704319734], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.679884453593195e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136185159e-06], ["'scalpel' (unit, GLO, None)", 0.0008694890009789467], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006840084781127945], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461120244902415e-05], ["'MUD raw materials' (unit, GLO, None)", 2.07955929409851e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752088442966528], ["'H200 SU' (unit, GLO, None)", 0.0001034352366171066], ["'autoclave' (unit, GLO, None)", 0.0001926026116827898], ["'transport' (ton kilometer, GLO, None)", 5.100409214895992e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010474127704319734], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.679884453593195e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136185159e-06], ["'scalpel' (unit, GLO, None)", 0.0008694890009789467], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787112264157], ["'SUD manufacturing' (unit, GLO, None)", 0.8181332375121704], ["'SUD raw materials' (unit, GLO, None)", 0.1652473798699598], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.17583132772732127], ["'mixed heating grid' (megajoule, GLO, None)", -0.13495231479928774], ["'transport' (ton kilometer, GLO, None)", 0.009047771079286568], ["'eol SUD' (kilogram, GLO, None)", 0.4215931853474754], ["'surgery use' (unit, GLO, None)", 0.01623027818696713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838595516812]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877578412949599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0164327578648877], ["'MUD raw materials' (unit, GLO, None)", 0.0009947396126566374], ["'mechanical disinfection' (unit, GLO, None)", 0.11211006477581788], ["'H200 SU' (unit, GLO, None)", 0.08762747544816313], ["'autoclave' (unit, GLO, None)", 0.22259091176951498], ["'transport' (ton kilometer, GLO, None)", 0.003700916669537176], ["'mixed heating grid' (megajoule, GLO, None)", -0.030651737201153793], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03993659521635693], ["'eol MUD' (kilogram, GLO, None)", 0.01443658609949656], ["'scalpel' (unit, GLO, None)", 0.01744137870580954], ["'surgery use' (unit, GLO, None)", 0.01623027818696713]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877578412949599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0164327578648877], ["'MUD raw materials' (unit, GLO, None)", 0.0009947396126566374], ["'mechanical disinfection' (unit, GLO, None)", 0.11211006477581788], ["'H200 SU' (unit, GLO, None)", 0.08762747544816313], ["'autoclave' (unit, GLO, None)", 0.05564772794237874], ["'transport' (ton kilometer, GLO, None)", 0.003700916669537176], ["'mixed heating grid' (megajoule, GLO, None)", -0.030651737201153793], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03993659521635693], ["'eol MUD' (kilogram, GLO, None)", 0.01443658609949656], ["'scalpel' (unit, GLO, None)", 0.01744137870580954], ["'surgery use' (unit, GLO, None)", 0.01623027818696713]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190770179105095], ["'SUD manufacturing' (unit, GLO, None)", 1.345147233779734], ["'SUD raw materials' (unit, GLO, None)", 0.01684144119383242], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010902530606923717], ["'mixed heating grid' (megajoule, GLO, None)", -0.005079441279063875], ["'transport' (ton kilometer, GLO, None)", 0.00022606767509194718], ["'eol SUD' (kilogram, GLO, None)", 0.03563855011371243], ["'surgery use' (unit, GLO, None)", 0.003484676944079787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.68790729399612e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348073934647367], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028659801944136], ["'MUD raw materials' (unit, GLO, None)", 0.0009575823769000188], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122105784196], ["'H200 SU' (unit, GLO, None)", 0.0034693095166739825], ["'autoclave' (unit, GLO, None)", 0.046071941025097984], ["'transport' (ton kilometer, GLO, None)", 9.247113127195448e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00115369417298339], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002476293373373642], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189339228564], ["'scalpel' (unit, GLO, None)", 0.007534488141609495], ["'surgery use' (unit, GLO, None)", 0.003484676944079787]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348073934647367], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028659801944136], ["'MUD raw materials' (unit, GLO, None)", 0.0009575823769000188], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122105784196], ["'H200 SU' (unit, GLO, None)", 0.0034693095166739825], ["'autoclave' (unit, GLO, None)", 0.011517985256274494], ["'transport' (ton kilometer, GLO, None)", 9.247113127195448e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00115369417298339], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002476293373373642], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189339228564], ["'scalpel' (unit, GLO, None)", 0.007534488141609495], ["'surgery use' (unit, GLO, None)", 0.003484676944079787]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220894657649065], ["'SUD manufacturing' (unit, GLO, None)", 1.726873704790681], ["'SUD raw materials' (unit, GLO, None)", 0.02314080473594811], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014216668792641666], ["'mixed heating grid' (megajoule, GLO, None)", -0.006769517502566591], ["'transport' (ton kilometer, GLO, None)", 0.0004016454079225147], ["'eol SUD' (kilogram, GLO, None)", 0.04896568407332341], ["'surgery use' (unit, GLO, None)", 0.004390461863977383], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433605788822e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493440810729216], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677601196299], ["'MUD raw materials' (unit, GLO, None)", 0.001492127980865618], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370128951044], ["'H200 SU' (unit, GLO, None)", 0.004917604873217172], ["'autoclave' (unit, GLO, None)", 0.058157489527531143], ["'transport' (ton kilometer, GLO, None)", 0.0001642897651142499], ["'mixed heating grid' (megajoule, GLO, None)", -0.001537561410309186], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003229034064835323], ["'eol MUD' (kilogram, GLO, None)", 0.001037055636975974], ["'scalpel' (unit, GLO, None)", 0.01028802442038257], ["'surgery use' (unit, GLO, None)", 0.004390461863977383]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493440810729216], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677601196299], ["'MUD raw materials' (unit, GLO, None)", 0.001492127980865618], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370128951044], ["'H200 SU' (unit, GLO, None)", 0.004917604873217172], ["'autoclave' (unit, GLO, None)", 0.014539372381882782], ["'transport' (ton kilometer, GLO, None)", 0.0001642897651142499], ["'mixed heating grid' (megajoule, GLO, None)", -0.001537561410309186], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003229034064835323], ["'eol MUD' (kilogram, GLO, None)", 0.001037055636975974], ["'scalpel' (unit, GLO, None)", 0.01028802442038257], ["'surgery use' (unit, GLO, None)", 0.004390461863977383]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.1995239349962604], ["'SUD manufacturing' (unit, GLO, None)", 102.7921921517095], ["'SUD raw materials' (unit, GLO, None)", 4.33866322235067], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.49007489098674273], ["'mixed heating grid' (megajoule, GLO, None)", -0.6099244397370115], ["'transport' (ton kilometer, GLO, None)", 0.17452026694061046], ["'eol SUD' (kilogram, GLO, None)", 0.9620869877118277], ["'surgery use' (unit, GLO, None)", 0.1764627008724338], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289121688878954]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391798278319657], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038050653102757036], ["'MUD raw materials' (unit, GLO, None)", 0.04272095769207626], ["'mechanical disinfection' (unit, GLO, None)", 1.1956286661903668], ["'H200 SU' (unit, GLO, None)", 0.2090295353913642], ["'autoclave' (unit, GLO, None)", 2.365422037731342], ["'transport' (ton kilometer, GLO, None)", 0.07138608607939184], ["'mixed heating grid' (megajoule, GLO, None)", -0.13853221908186575], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131078175892453], ["'eol MUD' (kilogram, GLO, None)", 0.034499710752962105], ["'scalpel' (unit, GLO, None)", 1.908031089657834], ["'surgery use' (unit, GLO, None)", 0.1764627008724338]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391798278319657], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038050653102757036], ["'MUD raw materials' (unit, GLO, None)", 0.04272095769207626], ["'mechanical disinfection' (unit, GLO, None)", 1.1956286661903668], ["'H200 SU' (unit, GLO, None)", 0.2090295353913642], ["'autoclave' (unit, GLO, None)", 0.5913555094328354], ["'transport' (ton kilometer, GLO, None)", 0.07138608607939184], ["'mixed heating grid' (megajoule, GLO, None)", -0.13853221908186575], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131078175892453], ["'eol MUD' (kilogram, GLO, None)", 0.034499710752962105], ["'scalpel' (unit, GLO, None)", 1.908031089657834], ["'surgery use' (unit, GLO, None)", 0.1764627008724338]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027070056074413], ["'SUD manufacturing' (unit, GLO, None)", 0.2206027902336158], ["'SUD raw materials' (unit, GLO, None)", 0.0683605615555244], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04629573922390743], ["'mixed heating grid' (megajoule, GLO, None)", -0.03900049323487184], ["'transport' (ton kilometer, GLO, None)", 0.00285140516269651], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125444184877], ["'surgery use' (unit, GLO, None)", 0.004169947682753907], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597704320632]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04830322458581313], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702107044698], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456163656864], ["'mechanical disinfection' (unit, GLO, None)", 0.028876560785642966], ["'H200 SU' (unit, GLO, None)", 0.0304158170143104], ["'autoclave' (unit, GLO, None)", 0.056996509846638246], ["'transport' (ton kilometer, GLO, None)", 0.0011663439321963906], ["'mixed heating grid' (megajoule, GLO, None)", -0.008858187213228723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010515158029713962], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411763481502], ["'scalpel' (unit, GLO, None)", 0.004622564405249475], ["'surgery use' (unit, GLO, None)", 0.004169947682753907]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04830322458581313], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702107044698], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456163656864], ["'mechanical disinfection' (unit, GLO, None)", 0.028876560785642966], ["'H200 SU' (unit, GLO, None)", 0.0304158170143104], ["'autoclave' (unit, GLO, None)", 0.01424912746165956], ["'transport' (ton kilometer, GLO, None)", 0.0011663439321963906], ["'mixed heating grid' (megajoule, GLO, None)", -0.008858187213228723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010515158029713962], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411763481502], ["'scalpel' (unit, GLO, None)", 0.004622564405249475], ["'surgery use' (unit, GLO, None)", 0.004169947682753907]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484369886260647e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001923555560798108], ["'SUD raw materials' (unit, GLO, None)", 4.92830018999675e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001461252690230981], ["'mixed heating grid' (megajoule, GLO, None)", -3.5092121954542726e-05], ["'transport' (ton kilometer, GLO, None)", 6.466689906558128e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930307512929e-06], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989248632748e-07]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877221609664109], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074484534983e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708853636569e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690828567498169], ["'H200 SU' (unit, GLO, None)", 3.474366379547855e-06], ["'autoclave' (unit, GLO, None)", 0.00022512371348594375], ["'transport' (ton kilometer, GLO, None)", 2.6451465518064267e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.970478324742008e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189453752557606e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645601471194e-07], ["'scalpel' (unit, GLO, None)", 1.328097438465706e-05], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877221609664109], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074484534983e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708853636569e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690828567498169], ["'H200 SU' (unit, GLO, None)", 3.474366379547855e-06], ["'autoclave' (unit, GLO, None)", 5.6280928371485925e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451465518064267e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.970478324742008e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189453752557606e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645601471194e-07], ["'scalpel' (unit, GLO, None)", 1.328097438465706e-05], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024756531852e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.939690711054542e-05], ["'SUD raw materials' (unit, GLO, None)", 9.42156071366807e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2654930631718861e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.908743338560248e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012361789842e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754232470207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571635469e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921412037711492e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570653345816e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908300022717072e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.770289199363628e-05], ["'H200 SU' (unit, GLO, None)", 1.406074533361694e-06], ["'autoclave' (unit, GLO, None)", 0.00015413111967605474], ["'transport' (ton kilometer, GLO, None)", 1.0414255077880163e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.877933941222144e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.8743162476358997e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702536090084e-08], ["'scalpel' (unit, GLO, None)", 2.281517577137207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921412037711492e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570653345816e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908300022717072e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.770289199363628e-05], ["'H200 SU' (unit, GLO, None)", 1.406074533361694e-06], ["'autoclave' (unit, GLO, None)", 3.853277991901368e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255077880163e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.877933941222144e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.8743162476358997e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702536090084e-08], ["'scalpel' (unit, GLO, None)", 2.281517577137207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189687501730286], ["'SUD manufacturing' (unit, GLO, None)", 0.1693128743256003], ["'SUD raw materials' (unit, GLO, None)", 0.02807747623335543], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014567002916728123], ["'mixed heating grid' (megajoule, GLO, None)", -0.005547084885158837], ["'transport' (ton kilometer, GLO, None)", 0.0004686718612997315], ["'eol SUD' (kilogram, GLO, None)", 0.005098283646057122], ["'surgery use' (unit, GLO, None)", 0.001498455105585213], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.77900713490845e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0183838561364802], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000679213388622571], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185221493995], ["'mechanical disinfection' (unit, GLO, None)", 0.01059841729578767], ["'H200 SU' (unit, GLO, None)", 0.0013291292135014015], ["'autoclave' (unit, GLO, None)", 0.021468091406772694], ["'transport' (ton kilometer, GLO, None)", 0.00019170638700155543], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012599101274050797], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003308605505743824], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721926196791], ["'scalpel' (unit, GLO, None)", 0.01104604511932704], ["'surgery use' (unit, GLO, None)", 0.001498455105585213]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0183838561364802], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000679213388622571], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185221493995], ["'mechanical disinfection' (unit, GLO, None)", 0.01059841729578767], ["'H200 SU' (unit, GLO, None)", 0.0013291292135014015], ["'autoclave' (unit, GLO, None)", 0.0053670228516931725], ["'transport' (ton kilometer, GLO, None)", 0.00019170638700155543], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012599101274050797], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003308605505743824], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721926196791], ["'scalpel' (unit, GLO, None)", 0.01104604511932704], ["'surgery use' (unit, GLO, None)", 0.001498455105585213]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965376405734], ["'SUD manufacturing' (unit, GLO, None)", 19.78708885728676], ["'SUD raw materials' (unit, GLO, None)", 0.3179891275467485], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.25998010666681026], ["'mixed heating grid' (megajoule, GLO, None)", -0.15076655681229187], ["'transport' (ton kilometer, GLO, None)", 0.0071217157155639725], ["'eol SUD' (kilogram, GLO, None)", 0.5721151079693373], ["'surgery use' (unit, GLO, None)", 0.04545673328065242], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00172736711046682]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174115365017082], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01017330524341225], ["'MUD raw materials' (unit, GLO, None)", 0.01792910688333572], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408537146491], ["'H200 SU' (unit, GLO, None)", 0.04013472987752573], ["'autoclave' (unit, GLO, None)", 0.6714095367698678], ["'transport' (ton kilometer, GLO, None)", 0.002913079495100783], ["'mixed heating grid' (megajoule, GLO, None)", -0.03424362809193981], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.059049319700066154], ["'eol MUD' (kilogram, GLO, None)", 0.009933703786774667], ["'scalpel' (unit, GLO, None)", 0.129390960546826], ["'surgery use' (unit, GLO, None)", 0.04545673328065242]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174115365017082], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01017330524341225], ["'MUD raw materials' (unit, GLO, None)", 0.01792910688333572], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408537146491], ["'H200 SU' (unit, GLO, None)", 0.04013472987752573], ["'autoclave' (unit, GLO, None)", 0.16785238419246692], ["'transport' (ton kilometer, GLO, None)", 0.002913079495100783], ["'mixed heating grid' (megajoule, GLO, None)", -0.03424362809193981], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.059049319700066154], ["'eol MUD' (kilogram, GLO, None)", 0.009933703786774667], ["'scalpel' (unit, GLO, None)", 0.129390960546826], ["'surgery use' (unit, GLO, None)", 0.04545673328065242]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756602714635], ["'SUD manufacturing' (unit, GLO, None)", 0.08032177251599368], ["'SUD raw materials' (unit, GLO, None)", 0.009525746052058281], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.05325822217518958], ["'mixed heating grid' (megajoule, GLO, None)", -0.009079900876070695], ["'transport' (ton kilometer, GLO, None)", 0.00014709200211625133], ["'eol SUD' (kilogram, GLO, None)", 0.00041893230089478886], ["'surgery use' (unit, GLO, None)", 0.004535809354737391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756590294491e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05134164128711331], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.001038011982160958], ["'MUD raw materials' (unit, GLO, None)", 7.749260537636715e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0311543495476812], ["'H200 SU' (unit, GLO, None)", -0.0007266235736580722], ["'autoclave' (unit, GLO, None)", 0.06018770579455311], ["'transport' (ton kilometer, GLO, None)", 6.016677895773607e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002062319093079491], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547802060745], ["'eol MUD' (kilogram, GLO, None)", 1.3671574715111191e-05], ["'scalpel' (unit, GLO, None)", 0.001982239180938901], ["'surgery use' (unit, GLO, None)", 0.004535809354737391]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05134164128711331], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.001038011982160958], ["'MUD raw materials' (unit, GLO, None)", 7.749260537636715e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0311543495476812], ["'H200 SU' (unit, GLO, None)", -0.0007266235736580722], ["'autoclave' (unit, GLO, None)", 0.015046926448638276], ["'transport' (ton kilometer, GLO, None)", 6.016677895773607e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002062319093079491], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547802060745], ["'eol MUD' (kilogram, GLO, None)", 1.3671574715111191e-05], ["'scalpel' (unit, GLO, None)", 0.001982239180938901], ["'surgery use' (unit, GLO, None)", 0.004535809354737391]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954199993103342], ["'SUD manufacturing' (unit, GLO, None)", 0.05565814158847772], ["'SUD raw materials' (unit, GLO, None)", 0.003024483115416474], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0387652396708231], ["'mixed heating grid' (megajoule, GLO, None)", -0.09323111856521758], ["'transport' (ton kilometer, GLO, None)", 0.00034491097852358337], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345415667186], ["'surgery use' (unit, GLO, None)", 0.003318171013100557], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.556993778752915e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0366445819592032], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748527480972856], ["'MUD raw materials' (unit, GLO, None)", 5.159391437725069e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709439475192], ["'H200 SU' (unit, GLO, None)", -0.014343507867920137], ["'autoclave' (unit, GLO, None)", 0.04303643663122804], ["'transport' (ton kilometer, GLO, None)", 0.00014108301135587107], ["'mixed heating grid' (megajoule, GLO, None)", -0.021175596354022247], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008804754563416554], ["'eol MUD' (kilogram, GLO, None)", 4.808304412933896e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739193472854], ["'surgery use' (unit, GLO, None)", 0.003318171013100557]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0366445819592032], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748527480972856], ["'MUD raw materials' (unit, GLO, None)", 5.159391437725069e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709439475192], ["'H200 SU' (unit, GLO, None)", -0.014343507867920137], ["'autoclave' (unit, GLO, None)", 0.010759109157807008], ["'transport' (ton kilometer, GLO, None)", 0.00014108301135587107], ["'mixed heating grid' (megajoule, GLO, None)", -0.021175596354022247], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008804754563416554], ["'eol MUD' (kilogram, GLO, None)", 4.808304412933896e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739193472854], ["'surgery use' (unit, GLO, None)", 0.003318171013100557]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794912858025], ["'SUD manufacturing' (unit, GLO, None)", 0.0671657758712906], ["'SUD raw materials' (unit, GLO, None)", 0.00894178767800682], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0011929819163319002], ["'mixed heating grid' (megajoule, GLO, None)", -0.000717775653847763], ["'transport' (ton kilometer, GLO, None)", 0.00010199917707093223], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470945325926], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.3386352905518035e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00284794801855528], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777111222930905], ["'MUD raw materials' (unit, GLO, None)", 0.000153526737216424], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413911021456287], ["'H200 SU' (unit, GLO, None)", 0.0004879890831329588], ["'autoclave' (unit, GLO, None)", 0.003531536769439542], ["'transport' (ton kilometer, GLO, None)", 4.172192812935901e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001630284796807656], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000270962157362916], ["'eol MUD' (kilogram, GLO, None)", 1.4054603023976041e-05], ["'scalpel' (unit, GLO, None)", 0.003450867593807416], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00284794801855528], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777111222930905], ["'MUD raw materials' (unit, GLO, None)", 0.000153526737216424], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413911021456287], ["'H200 SU' (unit, GLO, None)", 0.0004879890831329588], ["'autoclave' (unit, GLO, None)", 0.0008828841923598854], ["'transport' (ton kilometer, GLO, None)", 4.172192812935901e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001630284796807656], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000270962157362916], ["'eol MUD' (kilogram, GLO, None)", 1.4054603023976041e-05], ["'scalpel' (unit, GLO, None)", 0.003450867593807416], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474511315416e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.961653707521734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723150617097e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.006293746047353e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.2850381684003046e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998951372077e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611566054476e-08], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955160033841e-10]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201650328347131e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040362620933696e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568127082263e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.291569130594569e-07], ["'H200 SU' (unit, GLO, None)", -1.1497546740642822e-08], ["'autoclave' (unit, GLO, None)", 2.6940934344303256e-07], ["'transport' (ton kilometer, GLO, None)", 1.6897512931084277e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.918708900239334e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.556897923517842e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387468732307e-09], ["'scalpel' (unit, GLO, None)", 9.885788092474081e-09], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201650328347131e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040362620933696e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568127082263e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.291569130594569e-07], ["'H200 SU' (unit, GLO, None)", -1.1497546740642822e-08], ["'autoclave' (unit, GLO, None)", 6.735233586075814e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897512931084277e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.918708900239334e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.556897923517842e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387468732307e-09], ["'scalpel' (unit, GLO, None)", 9.885788092474081e-09], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421229194726e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005208655732008955], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388322526986], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014504420314707063], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001999496915983528], ["'transport' (ton kilometer, GLO, None)", 6.510637374051772e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809039451016e-05], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944150902007e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002368734880398516], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725123224183243e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252884759238e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032162550958426], ["'H200 SU' (unit, GLO, None)", 4.71706656835522e-05], ["'autoclave' (unit, GLO, None)", 0.0002683552798845096], ["'transport' (ton kilometer, GLO, None)", 2.6631229035074025e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.541460003438789e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.29439111018186e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158824416373e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094730210608], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002368734880398516], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725123224183243e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252884759238e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032162550958426], ["'H200 SU' (unit, GLO, None)", 4.71706656835522e-05], ["'autoclave' (unit, GLO, None)", 6.70888199711274e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229035074025e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.541460003438789e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.29439111018186e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158824416373e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094730210608], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018987037222633203], ["'SUD manufacturing' (unit, GLO, None)", 0.003672453650123185], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415132606861], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00035428298659542865], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005066568822907527], ["'transport' (ton kilometer, GLO, None)", 1.4408454496546526e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144159108727e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969025918900004e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004060804858455592], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092901268128774e-05], ["'MUD raw materials' (unit, GLO, None)", 5.36047364790986e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787030473170856], ["'H200 SU' (unit, GLO, None)", 6.677366964181293e-05], ["'autoclave' (unit, GLO, None)", 0.00047596010027147205], ["'transport' (ton kilometer, GLO, None)", 5.893660323769116e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011507704503053125], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046834662845547e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350636281018e-06], ["'scalpel' (unit, GLO, None)", 6.410695268583662e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004060804858455592], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092901268128774e-05], ["'MUD raw materials' (unit, GLO, None)", 5.36047364790986e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787030473170856], ["'H200 SU' (unit, GLO, None)", 6.677366964181293e-05], ["'autoclave' (unit, GLO, None)", 0.00011899002506786799], ["'transport' (ton kilometer, GLO, None)", 5.893660323769116e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011507704503053125], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046834662845547e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350636281018e-06], ["'scalpel' (unit, GLO, None)", 6.410695268583662e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078741262582], ["'SUD manufacturing' (unit, GLO, None)", 0.003766581488433622], ["'SUD raw materials' (unit, GLO, None)", 0.0004353568964866489], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00036227947147476626], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005248497039873228], ["'transport' (ton kilometer, GLO, None)", 1.6300400097491155e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421649441565e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880184595593e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004163730817578929], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724628480901094e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499652186560074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386385863275307], ["'H200 SU' (unit, GLO, None)", 7.257876053678718e-05], ["'autoclave' (unit, GLO, None)", 0.00048807697205762243], ["'transport' (ton kilometer, GLO, None)", 6.6675451790594225e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011920918304105806], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.22845894101461e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056978586543e-06], ["'scalpel' (unit, GLO, None)", 6.661414618403667e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004163730817578929], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724628480901094e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499652186560074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386385863275307], ["'H200 SU' (unit, GLO, None)", 7.257876053678718e-05], ["'autoclave' (unit, GLO, None)", 0.00012201924301440558], ["'transport' (ton kilometer, GLO, None)", 6.6675451790594225e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011920918304105806], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.22845894101461e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056978586543e-06], ["'scalpel' (unit, GLO, None)", 6.661414618403667e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758669815752], ["'SUD manufacturing' (unit, GLO, None)", 0.01074980917895688], ["'SUD raw materials' (unit, GLO, None)", 0.004321421002051686], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0031790865000377684], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007832484765892859], ["'transport' (ton kilometer, GLO, None)", 1.4729126159667161e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943448671287], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961758439202e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411028207931884], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736312783656947], ["'MUD raw materials' (unit, GLO, None)", 2.571622912195929e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001012018192716], ["'H200 SU' (unit, GLO, None)", 0.00030707171933939227], ["'autoclave' (unit, GLO, None)", 0.004165478766274852], ["'transport' (ton kilometer, GLO, None)", 6.024828441650469e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017789933061411673], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220663823154733], ["'eol MUD' (kilogram, GLO, None)", 1.2165982318170018e-05], ["'scalpel' (unit, GLO, None)", 0.001017723697383506], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411028207931884], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736312783656947], ["'MUD raw materials' (unit, GLO, None)", 2.571622912195929e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001012018192716], ["'H200 SU' (unit, GLO, None)", 0.00030707171933939227], ["'autoclave' (unit, GLO, None)", 0.0010413696915687128], ["'transport' (ton kilometer, GLO, None)", 6.024828441650469e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017789933061411673], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220663823154733], ["'eol MUD' (kilogram, GLO, None)", 1.2165982318170018e-05], ["'scalpel' (unit, GLO, None)", 0.001017723697383506], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2850469472542877e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.954979666617218e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050867721762e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0857761290040134e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.4048055835024421e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920504224835e-11], ["'eol SUD' (kilogram, GLO, None)", 1.251683332697216e-09], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307415529949e-12]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238557975404641e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929599543815468e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065958018088411e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260636099423687e-10], ["'H200 SU' (unit, GLO, None)", 1.5716040759546777e-10], ["'autoclave' (unit, GLO, None)", 1.447332677272215e-09], ["'transport' (ton kilometer, GLO, None)", 1.4631100415439382e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.1907367893816693e-10], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661249118736226e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931530033267e-11], ["'scalpel' (unit, GLO, None)", 2.839170232281382e-10], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238557975404641e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929599543815468e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065958018088411e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260636099423687e-10], ["'H200 SU' (unit, GLO, None)", 1.5716040759546777e-10], ["'autoclave' (unit, GLO, None)", 3.6183316931805363e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100415439382e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.1907367893816693e-10], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661249118736226e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931530033267e-11], ["'scalpel' (unit, GLO, None)", 2.839170232281382e-10], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691844959667504e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.132213921451894e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527679456734e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.6989094492108133e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.060423046072301e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717588922652664e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078092539192e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753652545843e-09]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.3335115239521e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214316274543e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001798438176e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423093158674e-07], ["'H200 SU' (unit, GLO, None)", 1.2524711953639605e-07], ["'autoclave' (unit, GLO, None)", 6.098543451532333e-07], ["'transport' (ton kilometer, GLO, None)", 6.42915104051957e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.951142933122763e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401338448867124e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888516200038e-08], ["'scalpel' (unit, GLO, None)", 2.5910084637179e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.3335115239521e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214316274543e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001798438176e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423093158674e-07], ["'H200 SU' (unit, GLO, None)", 1.2524711953639605e-07], ["'autoclave' (unit, GLO, None)", 1.524635862883083e-07], ["'transport' (ton kilometer, GLO, None)", 6.42915104051957e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.951142933122763e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401338448867124e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888516200038e-08], ["'scalpel' (unit, GLO, None)", 2.5910084637179e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350049888184], ["'SUD manufacturing' (unit, GLO, None)", 0.0677477979825455], ["'SUD raw materials' (unit, GLO, None)", 0.02624265141776931], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008643950324933564], ["'mixed heating grid' (megajoule, GLO, None)", -0.012234926591525593], ["'transport' (ton kilometer, GLO, None)", 0.0012316580464652887], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153516257608], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475916586417e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009969443249363337], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523864332740426], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366404156433], ["'mechanical disinfection' (unit, GLO, None)", 0.005860579632790159], ["'H200 SU' (unit, GLO, None)", 0.012299138920134383], ["'autoclave' (unit, GLO, None)", 0.011815226579813523], ["'transport' (ton kilometer, GLO, None)", 0.0005037996380974315], ["'mixed heating grid' (megajoule, GLO, None)", -0.002778920503265277], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001963301703167022], ["'eol MUD' (kilogram, GLO, None)", 4.020532856970079e-05], ["'scalpel' (unit, GLO, None)", 0.001988557805401264], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009969443249363337], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523864332740426], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366404156433], ["'mechanical disinfection' (unit, GLO, None)", 0.005860579632790159], ["'H200 SU' (unit, GLO, None)", 0.012299138920134383], ["'autoclave' (unit, GLO, None)", 0.0029538066449533804], ["'transport' (ton kilometer, GLO, None)", 0.0005037996380974315], ["'mixed heating grid' (megajoule, GLO, None)", -0.002778920503265277], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001963301703167022], ["'eol MUD' (kilogram, GLO, None)", 4.020532856970079e-05], ["'scalpel' (unit, GLO, None)", 0.001988557805401264], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_apos/data_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_case2_apos_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519348965661], ["'SUD manufacturing' (unit, GLO, None)", 0.01466648731612479], ["'SUD raw materials' (unit, GLO, None)", 0.002301881215345004], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0004261822838180366], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004611509520406858], ["'transport' (ton kilometer, GLO, None)", 1.246916348236333e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280040124826935e-05], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631991921123e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006840084781127945], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461120244902415e-05], ["'MUD raw materials' (unit, GLO, None)", 2.07955929409851e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752088442966528], ["'H200 SU' (unit, GLO, None)", 0.0001034352366171066], ["'autoclave' (unit, GLO, None)", 0.0001926026116827898], ["'transport' (ton kilometer, GLO, None)", 5.100409214895992e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010474127704319734], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.679884453593195e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136185159e-06], ["'scalpel' (unit, GLO, None)", 0.0008694890009789467], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787112264157], ["'SUD manufacturing' (unit, GLO, None)", 0.8181332375121704], ["'SUD raw materials' (unit, GLO, None)", 0.1652473798699598], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.17583132772732127], ["'mixed heating grid' (megajoule, GLO, None)", -0.13495231479928774], ["'transport' (ton kilometer, GLO, None)", 0.009047771079286568], ["'eol SUD' (kilogram, GLO, None)", 0.4215931853474754], ["'surgery use' (unit, GLO, None)", 0.01623027818696713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838595516812]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877578412949599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0164327578648877], ["'MUD raw materials' (unit, GLO, None)", 0.0009947396126566374], ["'mechanical disinfection' (unit, GLO, None)", 0.11211006477581788], ["'H200 SU' (unit, GLO, None)", 0.08762747544816313], ["'autoclave' (unit, GLO, None)", 0.05564772794237874], ["'transport' (ton kilometer, GLO, None)", 0.003700916669537176], ["'mixed heating grid' (megajoule, GLO, None)", -0.030651737201153793], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03993659521635693], ["'eol MUD' (kilogram, GLO, None)", 0.01443658609949656], ["'scalpel' (unit, GLO, None)", 0.01744137870580954], ["'surgery use' (unit, GLO, None)", 0.01623027818696713]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190770179105095], ["'SUD manufacturing' (unit, GLO, None)", 1.345147233779734], ["'SUD raw materials' (unit, GLO, None)", 0.01684144119383242], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010902530606923717], ["'mixed heating grid' (megajoule, GLO, None)", -0.005079441279063875], ["'transport' (ton kilometer, GLO, None)", 0.00022606767509194718], ["'eol SUD' (kilogram, GLO, None)", 0.03563855011371243], ["'surgery use' (unit, GLO, None)", 0.003484676944079787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.68790729399612e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348073934647367], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028659801944136], ["'MUD raw materials' (unit, GLO, None)", 0.0009575823769000188], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122105784196], ["'H200 SU' (unit, GLO, None)", 0.0034693095166739825], ["'autoclave' (unit, GLO, None)", 0.011517985256274494], ["'transport' (ton kilometer, GLO, None)", 9.247113127195448e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00115369417298339], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002476293373373642], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189339228564], ["'scalpel' (unit, GLO, None)", 0.007534488141609495], ["'surgery use' (unit, GLO, None)", 0.003484676944079787]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220894657649065], ["'SUD manufacturing' (unit, GLO, None)", 1.726873704790681], ["'SUD raw materials' (unit, GLO, None)", 0.02314080473594811], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014216668792641666], ["'mixed heating grid' (megajoule, GLO, None)", -0.006769517502566591], ["'transport' (ton kilometer, GLO, None)", 0.0004016454079225147], ["'eol SUD' (kilogram, GLO, None)", 0.04896568407332341], ["'surgery use' (unit, GLO, None)", 0.004390461863977383], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433605788822e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493440810729216], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677601196299], ["'MUD raw materials' (unit, GLO, None)", 0.001492127980865618], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370128951044], ["'H200 SU' (unit, GLO, None)", 0.004917604873217172], ["'autoclave' (unit, GLO, None)", 0.014539372381882782], ["'transport' (ton kilometer, GLO, None)", 0.0001642897651142499], ["'mixed heating grid' (megajoule, GLO, None)", -0.001537561410309186], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003229034064835323], ["'eol MUD' (kilogram, GLO, None)", 0.001037055636975974], ["'scalpel' (unit, GLO, None)", 0.01028802442038257], ["'surgery use' (unit, GLO, None)", 0.004390461863977383]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.1995239349962604], ["'SUD manufacturing' (unit, GLO, None)", 102.7921921517095], ["'SUD raw materials' (unit, GLO, None)", 4.33866322235067], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.49007489098674273], ["'mixed heating grid' (megajoule, GLO, None)", -0.6099244397370115], ["'transport' (ton kilometer, GLO, None)", 0.17452026694061046], ["'eol SUD' (kilogram, GLO, None)", 0.9620869877118277], ["'surgery use' (unit, GLO, None)", 0.1764627008724338], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289121688878954]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391798278319657], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038050653102757036], ["'MUD raw materials' (unit, GLO, None)", 0.04272095769207626], ["'mechanical disinfection' (unit, GLO, None)", 1.1956286661903668], ["'H200 SU' (unit, GLO, None)", 0.2090295353913642], ["'autoclave' (unit, GLO, None)", 0.5913555094328354], ["'transport' (ton kilometer, GLO, None)", 0.07138608607939184], ["'mixed heating grid' (megajoule, GLO, None)", -0.13853221908186575], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11131078175892453], ["'eol MUD' (kilogram, GLO, None)", 0.034499710752962105], ["'scalpel' (unit, GLO, None)", 1.908031089657834], ["'surgery use' (unit, GLO, None)", 0.1764627008724338]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027070056074413], ["'SUD manufacturing' (unit, GLO, None)", 0.2206027902336158], ["'SUD raw materials' (unit, GLO, None)", 0.0683605615555244], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04629573922390743], ["'mixed heating grid' (megajoule, GLO, None)", -0.03900049323487184], ["'transport' (ton kilometer, GLO, None)", 0.00285140516269651], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125444184877], ["'surgery use' (unit, GLO, None)", 0.004169947682753907], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597704320632]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04830322458581313], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702107044698], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456163656864], ["'mechanical disinfection' (unit, GLO, None)", 0.028876560785642966], ["'H200 SU' (unit, GLO, None)", 0.0304158170143104], ["'autoclave' (unit, GLO, None)", 0.01424912746165956], ["'transport' (ton kilometer, GLO, None)", 0.0011663439321963906], ["'mixed heating grid' (megajoule, GLO, None)", -0.008858187213228723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.010515158029713962], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411763481502], ["'scalpel' (unit, GLO, None)", 0.004622564405249475], ["'surgery use' (unit, GLO, None)", 0.004169947682753907]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484369886260647e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001923555560798108], ["'SUD raw materials' (unit, GLO, None)", 4.92830018999675e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0001461252690230981], ["'mixed heating grid' (megajoule, GLO, None)", -3.5092121954542726e-05], ["'transport' (ton kilometer, GLO, None)", 6.466689906558128e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930307512929e-06], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989248632748e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877221609664109], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074484534983e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708853636569e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690828567498169], ["'H200 SU' (unit, GLO, None)", 3.474366379547855e-06], ["'autoclave' (unit, GLO, None)", 5.6280928371485925e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451465518064267e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.970478324742008e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.3189453752557606e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645601471194e-07], ["'scalpel' (unit, GLO, None)", 1.328097438465706e-05], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024756531852e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.939690711054542e-05], ["'SUD raw materials' (unit, GLO, None)", 9.42156071366807e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2654930631718861e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.908743338560248e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012361789842e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754232470207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571635469e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921412037711492e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570653345816e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908300022717072e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.770289199363628e-05], ["'H200 SU' (unit, GLO, None)", 1.406074533361694e-06], ["'autoclave' (unit, GLO, None)", 3.853277991901368e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255077880163e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.877933941222144e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.8743162476358997e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702536090084e-08], ["'scalpel' (unit, GLO, None)", 2.281517577137207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189687501730286], ["'SUD manufacturing' (unit, GLO, None)", 0.1693128743256003], ["'SUD raw materials' (unit, GLO, None)", 0.02807747623335543], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.014567002916728123], ["'mixed heating grid' (megajoule, GLO, None)", -0.005547084885158837], ["'transport' (ton kilometer, GLO, None)", 0.0004686718612997315], ["'eol SUD' (kilogram, GLO, None)", 0.005098283646057122], ["'surgery use' (unit, GLO, None)", 0.001498455105585213], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.77900713490845e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0183838561364802], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000679213388622571], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185221493995], ["'mechanical disinfection' (unit, GLO, None)", 0.01059841729578767], ["'H200 SU' (unit, GLO, None)", 0.0013291292135014015], ["'autoclave' (unit, GLO, None)", 0.0053670228516931725], ["'transport' (ton kilometer, GLO, None)", 0.00019170638700155543], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012599101274050797], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003308605505743824], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721926196791], ["'scalpel' (unit, GLO, None)", 0.01104604511932704], ["'surgery use' (unit, GLO, None)", 0.001498455105585213]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965376405734], ["'SUD manufacturing' (unit, GLO, None)", 19.78708885728676], ["'SUD raw materials' (unit, GLO, None)", 0.3179891275467485], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.25998010666681026], ["'mixed heating grid' (megajoule, GLO, None)", -0.15076655681229187], ["'transport' (ton kilometer, GLO, None)", 0.0071217157155639725], ["'eol SUD' (kilogram, GLO, None)", 0.5721151079693373], ["'surgery use' (unit, GLO, None)", 0.04545673328065242], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00172736711046682]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174115365017082], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01017330524341225], ["'MUD raw materials' (unit, GLO, None)", 0.01792910688333572], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408537146491], ["'H200 SU' (unit, GLO, None)", 0.04013472987752573], ["'autoclave' (unit, GLO, None)", 0.16785238419246692], ["'transport' (ton kilometer, GLO, None)", 0.002913079495100783], ["'mixed heating grid' (megajoule, GLO, None)", -0.03424362809193981], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.059049319700066154], ["'eol MUD' (kilogram, GLO, None)", 0.009933703786774667], ["'scalpel' (unit, GLO, None)", 0.129390960546826], ["'surgery use' (unit, GLO, None)", 0.04545673328065242]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756602714635], ["'SUD manufacturing' (unit, GLO, None)", 0.08032177251599368], ["'SUD raw materials' (unit, GLO, None)", 0.009525746052058281], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.05325822217518958], ["'mixed heating grid' (megajoule, GLO, None)", -0.009079900876070695], ["'transport' (ton kilometer, GLO, None)", 0.00014709200211625133], ["'eol SUD' (kilogram, GLO, None)", 0.00041893230089478886], ["'surgery use' (unit, GLO, None)", 0.004535809354737391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756590294491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05134164128711331], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.001038011982160958], ["'MUD raw materials' (unit, GLO, None)", 7.749260537636715e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0311543495476812], ["'H200 SU' (unit, GLO, None)", -0.0007266235736580722], ["'autoclave' (unit, GLO, None)", 0.015046926448638276], ["'transport' (ton kilometer, GLO, None)", 6.016677895773607e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002062319093079491], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012096547802060745], ["'eol MUD' (kilogram, GLO, None)", 1.3671574715111191e-05], ["'scalpel' (unit, GLO, None)", 0.001982239180938901], ["'surgery use' (unit, GLO, None)", 0.004535809354737391]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954199993103342], ["'SUD manufacturing' (unit, GLO, None)", 0.05565814158847772], ["'SUD raw materials' (unit, GLO, None)", 0.003024483115416474], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0387652396708231], ["'mixed heating grid' (megajoule, GLO, None)", -0.09323111856521758], ["'transport' (ton kilometer, GLO, None)", 0.00034491097852358337], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345415667186], ["'surgery use' (unit, GLO, None)", 0.003318171013100557], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.556993778752915e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0366445819592032], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748527480972856], ["'MUD raw materials' (unit, GLO, None)", 5.159391437725069e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709439475192], ["'H200 SU' (unit, GLO, None)", -0.014343507867920137], ["'autoclave' (unit, GLO, None)", 0.010759109157807008], ["'transport' (ton kilometer, GLO, None)", 0.00014108301135587107], ["'mixed heating grid' (megajoule, GLO, None)", -0.021175596354022247], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008804754563416554], ["'eol MUD' (kilogram, GLO, None)", 4.808304412933896e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739193472854], ["'surgery use' (unit, GLO, None)", 0.003318171013100557]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794912858025], ["'SUD manufacturing' (unit, GLO, None)", 0.0671657758712906], ["'SUD raw materials' (unit, GLO, None)", 0.00894178767800682], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0011929819163319002], ["'mixed heating grid' (megajoule, GLO, None)", -0.000717775653847763], ["'transport' (ton kilometer, GLO, None)", 0.00010199917707093223], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470945325926], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.3386352905518035e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00284794801855528], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777111222930905], ["'MUD raw materials' (unit, GLO, None)", 0.000153526737216424], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413911021456287], ["'H200 SU' (unit, GLO, None)", 0.0004879890831329588], ["'autoclave' (unit, GLO, None)", 0.0008828841923598854], ["'transport' (ton kilometer, GLO, None)", 4.172192812935901e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001630284796807656], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000270962157362916], ["'eol MUD' (kilogram, GLO, None)", 1.4054603023976041e-05], ["'scalpel' (unit, GLO, None)", 0.003450867593807416], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474511315416e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.961653707521734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723150617097e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.006293746047353e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.2850381684003046e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998951372077e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611566054476e-08], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955160033841e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201650328347131e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040362620933696e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568127082263e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.291569130594569e-07], ["'H200 SU' (unit, GLO, None)", -1.1497546740642822e-08], ["'autoclave' (unit, GLO, None)", 6.735233586075814e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897512931084277e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.918708900239334e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.556897923517842e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387468732307e-09], ["'scalpel' (unit, GLO, None)", 9.885788092474081e-09], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421229194726e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005208655732008955], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388322526986], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014504420314707063], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001999496915983528], ["'transport' (ton kilometer, GLO, None)", 6.510637374051772e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809039451016e-05], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944150902007e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002368734880398516], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725123224183243e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252884759238e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032162550958426], ["'H200 SU' (unit, GLO, None)", 4.71706656835522e-05], ["'autoclave' (unit, GLO, None)", 6.70888199711274e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229035074025e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.541460003438789e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.29439111018186e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158824416373e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094730210608], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018987037222633203], ["'SUD manufacturing' (unit, GLO, None)", 0.003672453650123185], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415132606861], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00035428298659542865], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005066568822907527], ["'transport' (ton kilometer, GLO, None)", 1.4408454496546526e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144159108727e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969025918900004e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004060804858455592], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092901268128774e-05], ["'MUD raw materials' (unit, GLO, None)", 5.36047364790986e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787030473170856], ["'H200 SU' (unit, GLO, None)", 6.677366964181293e-05], ["'autoclave' (unit, GLO, None)", 0.00011899002506786799], ["'transport' (ton kilometer, GLO, None)", 5.893660323769116e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011507704503053125], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.046834662845547e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350636281018e-06], ["'scalpel' (unit, GLO, None)", 6.410695268583662e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078741262582], ["'SUD manufacturing' (unit, GLO, None)", 0.003766581488433622], ["'SUD raw materials' (unit, GLO, None)", 0.0004353568964866489], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00036227947147476626], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005248497039873228], ["'transport' (ton kilometer, GLO, None)", 1.6300400097491155e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421649441565e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880184595593e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004163730817578929], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724628480901094e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499652186560074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386385863275307], ["'H200 SU' (unit, GLO, None)", 7.257876053678718e-05], ["'autoclave' (unit, GLO, None)", 0.00012201924301440558], ["'transport' (ton kilometer, GLO, None)", 6.6675451790594225e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011920918304105806], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.22845894101461e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056978586543e-06], ["'scalpel' (unit, GLO, None)", 6.661414618403667e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758669815752], ["'SUD manufacturing' (unit, GLO, None)", 0.01074980917895688], ["'SUD raw materials' (unit, GLO, None)", 0.004321421002051686], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0031790865000377684], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007832484765892859], ["'transport' (ton kilometer, GLO, None)", 1.4729126159667161e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943448671287], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961758439202e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411028207931884], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736312783656947], ["'MUD raw materials' (unit, GLO, None)", 2.571622912195929e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001012018192716], ["'H200 SU' (unit, GLO, None)", 0.00030707171933939227], ["'autoclave' (unit, GLO, None)", 0.0010413696915687128], ["'transport' (ton kilometer, GLO, None)", 6.024828441650469e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017789933061411673], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007220663823154733], ["'eol MUD' (kilogram, GLO, None)", 1.2165982318170018e-05], ["'scalpel' (unit, GLO, None)", 0.001017723697383506], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2850469472542877e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.954979666617218e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050867721762e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0857761290040134e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.4048055835024421e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920504224835e-11], ["'eol SUD' (kilogram, GLO, None)", 1.251683332697216e-09], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307415529949e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238557975404641e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929599543815468e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065958018088411e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260636099423687e-10], ["'H200 SU' (unit, GLO, None)", 1.5716040759546777e-10], ["'autoclave' (unit, GLO, None)", 3.6183316931805363e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100415439382e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.1907367893816693e-10], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.4661249118736226e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931530033267e-11], ["'scalpel' (unit, GLO, None)", 2.839170232281382e-10], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691844959667504e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.132213921451894e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527679456734e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.6989094492108133e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.060423046072301e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717588922652664e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078092539192e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753652545843e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.3335115239521e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214316274543e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001798438176e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423093158674e-07], ["'H200 SU' (unit, GLO, None)", 1.2524711953639605e-07], ["'autoclave' (unit, GLO, None)", 1.524635862883083e-07], ["'transport' (ton kilometer, GLO, None)", 6.42915104051957e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.951142933122763e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.401338448867124e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888516200038e-08], ["'scalpel' (unit, GLO, None)", 2.5910084637179e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350049888184], ["'SUD manufacturing' (unit, GLO, None)", 0.0677477979825455], ["'SUD raw materials' (unit, GLO, None)", 0.02624265141776931], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.008643950324933564], ["'mixed heating grid' (megajoule, GLO, None)", -0.012234926591525593], ["'transport' (ton kilometer, GLO, None)", 0.0012316580464652887], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153516257608], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475916586417e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009969443249363337], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523864332740426], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366404156433], ["'mechanical disinfection' (unit, GLO, None)", 0.005860579632790159], ["'H200 SU' (unit, GLO, None)", 0.012299138920134383], ["'autoclave' (unit, GLO, None)", 0.0029538066449533804], ["'transport' (ton kilometer, GLO, None)", 0.0005037996380974315], ["'mixed heating grid' (megajoule, GLO, None)", -0.002778920503265277], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001963301703167022], ["'eol MUD' (kilogram, GLO, None)", 4.020532856970079e-05], ["'scalpel' (unit, GLO, None)", 0.001988557805401264], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519348965661], ["'SUD manufacturing' (unit, GLO, None)", 0.01466648731612479], ["'SUD raw materials' (unit, GLO, None)", 0.002301881215345004], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004261822838180366], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004611509520406858], ["'transport' (ton kilometer, GLO, None)", 1.246916348236333e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280040124826935e-05], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631991921123e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006840084781127945], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461120244902415e-05], ["'MUD raw materials' (unit, GLO, None)", 2.07955929409851e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752088442966528], ["'H200 SU' (unit, GLO, None)", 0.0001034352366171066], ["'autoclave' (unit, GLO, None)", 0.0001926026116827898], ["'transport' (ton kilometer, GLO, None)", 5.100409214895992e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010474127704319734], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.679884453593195e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136185159e-06], ["'scalpel' (unit, GLO, None)", 0.0008694890009789467], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787112264157], ["'SUD manufacturing' (unit, GLO, None)", 0.8181332375121704], ["'SUD raw materials' (unit, GLO, None)", 0.1652473798699598], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17583132772732127], ["'mixed heating grid' (megajoule, GLO, None)", -0.13495231479928774], ["'transport' (ton kilometer, GLO, None)", 0.009047771079286568], ["'eol SUD' (kilogram, GLO, None)", 0.4215931853474754], ["'surgery use' (unit, GLO, None)", 0.01623027818696713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838595516812]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877578412949599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0164327578648877], ["'MUD raw materials' (unit, GLO, None)", 0.0009947396126566374], ["'mechanical disinfection' (unit, GLO, None)", 0.11211006477581788], ["'H200 SU' (unit, GLO, None)", 0.08762747544816313], ["'autoclave' (unit, GLO, None)", 0.05564772794237874], ["'transport' (ton kilometer, GLO, None)", 0.003700916669537176], ["'mixed heating grid' (megajoule, GLO, None)", -0.030651737201153793], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03993659521635693], ["'eol MUD' (kilogram, GLO, None)", 0.01443658609949656], ["'scalpel' (unit, GLO, None)", 0.01744137870580954], ["'surgery use' (unit, GLO, None)", 0.01623027818696713]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190770179105095], ["'SUD manufacturing' (unit, GLO, None)", 1.345147233779734], ["'SUD raw materials' (unit, GLO, None)", 0.01684144119383242], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010902530606923717], ["'mixed heating grid' (megajoule, GLO, None)", -0.005079441279063875], ["'transport' (ton kilometer, GLO, None)", 0.00022606767509194718], ["'eol SUD' (kilogram, GLO, None)", 0.03563855011371243], ["'surgery use' (unit, GLO, None)", 0.003484676944079787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.68790729399612e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348073934647367], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028659801944136], ["'MUD raw materials' (unit, GLO, None)", 0.0009575823769000188], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122105784196], ["'H200 SU' (unit, GLO, None)", 0.0034693095166739825], ["'autoclave' (unit, GLO, None)", 0.011517985256274494], ["'transport' (ton kilometer, GLO, None)", 9.247113127195448e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00115369417298339], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002476293373373642], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189339228564], ["'scalpel' (unit, GLO, None)", 0.007534488141609495], ["'surgery use' (unit, GLO, None)", 0.003484676944079787]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220894657649065], ["'SUD manufacturing' (unit, GLO, None)", 1.726873704790681], ["'SUD raw materials' (unit, GLO, None)", 0.02314080473594811], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216668792641666], ["'mixed heating grid' (megajoule, GLO, None)", -0.006769517502566591], ["'transport' (ton kilometer, GLO, None)", 0.0004016454079225147], ["'eol SUD' (kilogram, GLO, None)", 0.04896568407332341], ["'surgery use' (unit, GLO, None)", 0.004390461863977383], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433605788822e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493440810729216], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677601196299], ["'MUD raw materials' (unit, GLO, None)", 0.001492127980865618], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370128951044], ["'H200 SU' (unit, GLO, None)", 0.004917604873217172], ["'autoclave' (unit, GLO, None)", 0.014539372381882782], ["'transport' (ton kilometer, GLO, None)", 0.0001642897651142499], ["'mixed heating grid' (megajoule, GLO, None)", -0.001537561410309186], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003229034064835323], ["'eol MUD' (kilogram, GLO, None)", 0.001037055636975974], ["'scalpel' (unit, GLO, None)", 0.01028802442038257], ["'surgery use' (unit, GLO, None)", 0.004390461863977383]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.1995239349962604], ["'SUD manufacturing' (unit, GLO, None)", 102.7921921517095], ["'SUD raw materials' (unit, GLO, None)", 4.33866322235067], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.49007489098674273], ["'mixed heating grid' (megajoule, GLO, None)", -0.6099244397370115], ["'transport' (ton kilometer, GLO, None)", 0.17452026694061046], ["'eol SUD' (kilogram, GLO, None)", 0.9620869877118277], ["'surgery use' (unit, GLO, None)", 0.1764627008724338], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289121688878954]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391798278319657], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038050653102757036], ["'MUD raw materials' (unit, GLO, None)", 0.04272095769207626], ["'mechanical disinfection' (unit, GLO, None)", 1.1956286661903668], ["'H200 SU' (unit, GLO, None)", 0.2090295353913642], ["'autoclave' (unit, GLO, None)", 0.5913555094328354], ["'transport' (ton kilometer, GLO, None)", 0.07138608607939184], ["'mixed heating grid' (megajoule, GLO, None)", -0.13853221908186575], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11131078175892453], ["'eol MUD' (kilogram, GLO, None)", 0.034499710752962105], ["'scalpel' (unit, GLO, None)", 1.908031089657834], ["'surgery use' (unit, GLO, None)", 0.1764627008724338]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027070056074413], ["'SUD manufacturing' (unit, GLO, None)", 0.2206027902336158], ["'SUD raw materials' (unit, GLO, None)", 0.0683605615555244], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629573922390743], ["'mixed heating grid' (megajoule, GLO, None)", -0.03900049323487184], ["'transport' (ton kilometer, GLO, None)", 0.00285140516269651], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125444184877], ["'surgery use' (unit, GLO, None)", 0.004169947682753907], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597704320632]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04830322458581313], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702107044698], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456163656864], ["'mechanical disinfection' (unit, GLO, None)", 0.028876560785642966], ["'H200 SU' (unit, GLO, None)", 0.0304158170143104], ["'autoclave' (unit, GLO, None)", 0.01424912746165956], ["'transport' (ton kilometer, GLO, None)", 0.0011663439321963906], ["'mixed heating grid' (megajoule, GLO, None)", -0.008858187213228723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010515158029713962], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411763481502], ["'scalpel' (unit, GLO, None)", 0.004622564405249475], ["'surgery use' (unit, GLO, None)", 0.004169947682753907]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484369886260647e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001923555560798108], ["'SUD raw materials' (unit, GLO, None)", 4.92830018999675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001461252690230981], ["'mixed heating grid' (megajoule, GLO, None)", -3.5092121954542726e-05], ["'transport' (ton kilometer, GLO, None)", 6.466689906558128e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930307512929e-06], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989248632748e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877221609664109], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074484534983e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708853636569e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690828567498169], ["'H200 SU' (unit, GLO, None)", 3.474366379547855e-06], ["'autoclave' (unit, GLO, None)", 5.6280928371485925e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451465518064267e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.970478324742008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3189453752557606e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645601471194e-07], ["'scalpel' (unit, GLO, None)", 1.328097438465706e-05], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024756531852e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.939690711054542e-05], ["'SUD raw materials' (unit, GLO, None)", 9.42156071366807e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654930631718861e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.908743338560248e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012361789842e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754232470207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571635469e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921412037711492e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570653345816e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908300022717072e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.770289199363628e-05], ["'H200 SU' (unit, GLO, None)", 1.406074533361694e-06], ["'autoclave' (unit, GLO, None)", 3.853277991901368e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255077880163e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.877933941222144e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8743162476358997e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702536090084e-08], ["'scalpel' (unit, GLO, None)", 2.281517577137207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189687501730286], ["'SUD manufacturing' (unit, GLO, None)", 0.1693128743256003], ["'SUD raw materials' (unit, GLO, None)", 0.02807747623335543], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567002916728123], ["'mixed heating grid' (megajoule, GLO, None)", -0.005547084885158837], ["'transport' (ton kilometer, GLO, None)", 0.0004686718612997315], ["'eol SUD' (kilogram, GLO, None)", 0.005098283646057122], ["'surgery use' (unit, GLO, None)", 0.001498455105585213], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.77900713490845e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0183838561364802], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000679213388622571], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185221493995], ["'mechanical disinfection' (unit, GLO, None)", 0.01059841729578767], ["'H200 SU' (unit, GLO, None)", 0.0013291292135014015], ["'autoclave' (unit, GLO, None)", 0.0053670228516931725], ["'transport' (ton kilometer, GLO, None)", 0.00019170638700155543], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012599101274050797], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003308605505743824], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721926196791], ["'scalpel' (unit, GLO, None)", 0.01104604511932704], ["'surgery use' (unit, GLO, None)", 0.001498455105585213]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965376405734], ["'SUD manufacturing' (unit, GLO, None)", 19.78708885728676], ["'SUD raw materials' (unit, GLO, None)", 0.3179891275467485], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998010666681026], ["'mixed heating grid' (megajoule, GLO, None)", -0.15076655681229187], ["'transport' (ton kilometer, GLO, None)", 0.0071217157155639725], ["'eol SUD' (kilogram, GLO, None)", 0.5721151079693373], ["'surgery use' (unit, GLO, None)", 0.04545673328065242], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00172736711046682]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174115365017082], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01017330524341225], ["'MUD raw materials' (unit, GLO, None)", 0.01792910688333572], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408537146491], ["'H200 SU' (unit, GLO, None)", 0.04013472987752573], ["'autoclave' (unit, GLO, None)", 0.16785238419246692], ["'transport' (ton kilometer, GLO, None)", 0.002913079495100783], ["'mixed heating grid' (megajoule, GLO, None)", -0.03424362809193981], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.059049319700066154], ["'eol MUD' (kilogram, GLO, None)", 0.009933703786774667], ["'scalpel' (unit, GLO, None)", 0.129390960546826], ["'surgery use' (unit, GLO, None)", 0.04545673328065242]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756602714635], ["'SUD manufacturing' (unit, GLO, None)", 0.08032177251599368], ["'SUD raw materials' (unit, GLO, None)", 0.009525746052058281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822217518958], ["'mixed heating grid' (megajoule, GLO, None)", -0.009079900876070695], ["'transport' (ton kilometer, GLO, None)", 0.00014709200211625133], ["'eol SUD' (kilogram, GLO, None)", 0.00041893230089478886], ["'surgery use' (unit, GLO, None)", 0.004535809354737391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756590294491e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05134164128711331], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.001038011982160958], ["'MUD raw materials' (unit, GLO, None)", 7.749260537636715e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0311543495476812], ["'H200 SU' (unit, GLO, None)", -0.0007266235736580722], ["'autoclave' (unit, GLO, None)", 0.015046926448638276], ["'transport' (ton kilometer, GLO, None)", 6.016677895773607e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002062319093079491], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012096547802060745], ["'eol MUD' (kilogram, GLO, None)", 1.3671574715111191e-05], ["'scalpel' (unit, GLO, None)", 0.001982239180938901], ["'surgery use' (unit, GLO, None)", 0.004535809354737391]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954199993103342], ["'SUD manufacturing' (unit, GLO, None)", 0.05565814158847772], ["'SUD raw materials' (unit, GLO, None)", 0.003024483115416474], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0387652396708231], ["'mixed heating grid' (megajoule, GLO, None)", -0.09323111856521758], ["'transport' (ton kilometer, GLO, None)", 0.00034491097852358337], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345415667186], ["'surgery use' (unit, GLO, None)", 0.003318171013100557], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.556993778752915e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0366445819592032], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748527480972856], ["'MUD raw materials' (unit, GLO, None)", 5.159391437725069e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709439475192], ["'H200 SU' (unit, GLO, None)", -0.014343507867920137], ["'autoclave' (unit, GLO, None)", 0.010759109157807008], ["'transport' (ton kilometer, GLO, None)", 0.00014108301135587107], ["'mixed heating grid' (megajoule, GLO, None)", -0.021175596354022247], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008804754563416554], ["'eol MUD' (kilogram, GLO, None)", 4.808304412933896e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739193472854], ["'surgery use' (unit, GLO, None)", 0.003318171013100557]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794912858025], ["'SUD manufacturing' (unit, GLO, None)", 0.0671657758712906], ["'SUD raw materials' (unit, GLO, None)", 0.00894178767800682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929819163319002], ["'mixed heating grid' (megajoule, GLO, None)", -0.000717775653847763], ["'transport' (ton kilometer, GLO, None)", 0.00010199917707093223], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470945325926], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.3386352905518035e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00284794801855528], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777111222930905], ["'MUD raw materials' (unit, GLO, None)", 0.000153526737216424], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413911021456287], ["'H200 SU' (unit, GLO, None)", 0.0004879890831329588], ["'autoclave' (unit, GLO, None)", 0.0008828841923598854], ["'transport' (ton kilometer, GLO, None)", 4.172192812935901e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001630284796807656], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000270962157362916], ["'eol MUD' (kilogram, GLO, None)", 1.4054603023976041e-05], ["'scalpel' (unit, GLO, None)", 0.003450867593807416], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474511315416e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.961653707521734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723150617097e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.006293746047353e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.2850381684003046e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998951372077e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611566054476e-08], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955160033841e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201650328347131e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040362620933696e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568127082263e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.291569130594569e-07], ["'H200 SU' (unit, GLO, None)", -1.1497546740642822e-08], ["'autoclave' (unit, GLO, None)", 6.735233586075814e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897512931084277e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.918708900239334e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.556897923517842e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387468732307e-09], ["'scalpel' (unit, GLO, None)", 9.885788092474081e-09], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421229194726e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005208655732008955], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388322526986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504420314707063], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001999496915983528], ["'transport' (ton kilometer, GLO, None)", 6.510637374051772e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809039451016e-05], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944150902007e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002368734880398516], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725123224183243e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252884759238e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032162550958426], ["'H200 SU' (unit, GLO, None)", 4.71706656835522e-05], ["'autoclave' (unit, GLO, None)", 6.70888199711274e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229035074025e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.541460003438789e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.29439111018186e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158824416373e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094730210608], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018987037222633203], ["'SUD manufacturing' (unit, GLO, None)", 0.003672453650123185], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415132606861], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035428298659542865], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005066568822907527], ["'transport' (ton kilometer, GLO, None)", 1.4408454496546526e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144159108727e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969025918900004e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004060804858455592], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092901268128774e-05], ["'MUD raw materials' (unit, GLO, None)", 5.36047364790986e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787030473170856], ["'H200 SU' (unit, GLO, None)", 6.677366964181293e-05], ["'autoclave' (unit, GLO, None)", 0.00011899002506786799], ["'transport' (ton kilometer, GLO, None)", 5.893660323769116e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011507704503053125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.046834662845547e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350636281018e-06], ["'scalpel' (unit, GLO, None)", 6.410695268583662e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078741262582], ["'SUD manufacturing' (unit, GLO, None)", 0.003766581488433622], ["'SUD raw materials' (unit, GLO, None)", 0.0004353568964866489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036227947147476626], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005248497039873228], ["'transport' (ton kilometer, GLO, None)", 1.6300400097491155e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421649441565e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880184595593e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004163730817578929], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724628480901094e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499652186560074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386385863275307], ["'H200 SU' (unit, GLO, None)", 7.257876053678718e-05], ["'autoclave' (unit, GLO, None)", 0.00012201924301440558], ["'transport' (ton kilometer, GLO, None)", 6.6675451790594225e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011920918304105806], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.22845894101461e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056978586543e-06], ["'scalpel' (unit, GLO, None)", 6.661414618403667e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758669815752], ["'SUD manufacturing' (unit, GLO, None)", 0.01074980917895688], ["'SUD raw materials' (unit, GLO, None)", 0.004321421002051686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790865000377684], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007832484765892859], ["'transport' (ton kilometer, GLO, None)", 1.4729126159667161e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943448671287], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961758439202e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411028207931884], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736312783656947], ["'MUD raw materials' (unit, GLO, None)", 2.571622912195929e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001012018192716], ["'H200 SU' (unit, GLO, None)", 0.00030707171933939227], ["'autoclave' (unit, GLO, None)", 0.0010413696915687128], ["'transport' (ton kilometer, GLO, None)", 6.024828441650469e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017789933061411673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007220663823154733], ["'eol MUD' (kilogram, GLO, None)", 1.2165982318170018e-05], ["'scalpel' (unit, GLO, None)", 0.001017723697383506], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2850469472542877e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.954979666617218e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050867721762e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857761290040134e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.4048055835024421e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920504224835e-11], ["'eol SUD' (kilogram, GLO, None)", 1.251683332697216e-09], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307415529949e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238557975404641e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929599543815468e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065958018088411e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260636099423687e-10], ["'H200 SU' (unit, GLO, None)", 1.5716040759546777e-10], ["'autoclave' (unit, GLO, None)", 3.6183316931805363e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100415439382e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.1907367893816693e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4661249118736226e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931530033267e-11], ["'scalpel' (unit, GLO, None)", 2.839170232281382e-10], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691844959667504e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.132213921451894e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527679456734e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989094492108133e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.060423046072301e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717588922652664e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078092539192e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753652545843e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.3335115239521e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214316274543e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001798438176e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423093158674e-07], ["'H200 SU' (unit, GLO, None)", 1.2524711953639605e-07], ["'autoclave' (unit, GLO, None)", 1.524635862883083e-07], ["'transport' (ton kilometer, GLO, None)", 6.42915104051957e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.951142933122763e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.401338448867124e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888516200038e-08], ["'scalpel' (unit, GLO, None)", 2.5910084637179e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350049888184], ["'SUD manufacturing' (unit, GLO, None)", 0.0677477979825455], ["'SUD raw materials' (unit, GLO, None)", 0.02624265141776931], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643950324933564], ["'mixed heating grid' (megajoule, GLO, None)", -0.012234926591525593], ["'transport' (ton kilometer, GLO, None)", 0.0012316580464652887], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153516257608], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475916586417e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009969443249363337], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523864332740426], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366404156433], ["'mechanical disinfection' (unit, GLO, None)", 0.005860579632790159], ["'H200 SU' (unit, GLO, None)", 0.012299138920134383], ["'autoclave' (unit, GLO, None)", 0.0029538066449533804], ["'transport' (ton kilometer, GLO, None)", 0.0005037996380974315], ["'mixed heating grid' (megajoule, GLO, None)", -0.002778920503265277], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001963301703167022], ["'eol MUD' (kilogram, GLO, None)", 4.020532856970079e-05], ["'scalpel' (unit, GLO, None)", 0.001988557805401264], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_apos/data_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_case2_apos_recipe.xlsx
@@ -79,130 +79,130 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519348965661], ["'SUD manufacturing' (unit, GLO, None)", 0.01466648731612479], ["'SUD raw materials' (unit, GLO, None)", 0.002301881215345004], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004261822838180366], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004611509520406858], ["'transport' (ton kilometer, GLO, None)", 1.246916348236333e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280040124826935e-05], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631991921123e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006840084781127945], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461120244902415e-05], ["'MUD raw materials' (unit, GLO, None)", 2.07955929409851e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0003752088442966528], ["'H200 SU' (unit, GLO, None)", 0.0001034352366171066], ["'autoclave' (unit, GLO, None)", 0.0001926026116827898], ["'transport' (ton kilometer, GLO, None)", 5.100409214895992e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00010474127704319734], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.679884453593195e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136185159e-06], ["'scalpel' (unit, GLO, None)", 0.0008694890009789467], ["'surgery use' (unit, GLO, None)", 5.367418638597312e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787112264157], ["'SUD manufacturing' (unit, GLO, None)", 0.8181332375121704], ["'SUD raw materials' (unit, GLO, None)", 0.1652473798699598], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17583132772732127], ["'mixed heating grid' (megajoule, GLO, None)", -0.13495231479928774], ["'transport' (ton kilometer, GLO, None)", 0.009047771079286568], ["'eol SUD' (kilogram, GLO, None)", 0.4215931853474754], ["'surgery use' (unit, GLO, None)", 0.01623027818696713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838595516812]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877578412949599], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0164327578648877], ["'MUD raw materials' (unit, GLO, None)", 0.0009947396126566374], ["'mechanical disinfection' (unit, GLO, None)", 0.11211006477581788], ["'H200 SU' (unit, GLO, None)", 0.08762747544816313], ["'autoclave' (unit, GLO, None)", 0.05564772794237874], ["'transport' (ton kilometer, GLO, None)", 0.003700916669537176], ["'mixed heating grid' (megajoule, GLO, None)", -0.030651737201153793], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03993659521635693], ["'eol MUD' (kilogram, GLO, None)", 0.01443658609949656], ["'scalpel' (unit, GLO, None)", 0.01744137870580954], ["'surgery use' (unit, GLO, None)", 0.01623027818696713]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190770179105095], ["'SUD manufacturing' (unit, GLO, None)", 1.345147233779734], ["'SUD raw materials' (unit, GLO, None)", 0.01684144119383242], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010902530606923717], ["'mixed heating grid' (megajoule, GLO, None)", -0.005079441279063875], ["'transport' (ton kilometer, GLO, None)", 0.00022606767509194718], ["'eol SUD' (kilogram, GLO, None)", 0.03563855011371243], ["'surgery use' (unit, GLO, None)", 0.003484676944079787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.68790729399612e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348073934647367], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028659801944136], ["'MUD raw materials' (unit, GLO, None)", 0.0009575823769000188], ["'mechanical disinfection' (unit, GLO, None)", 0.023493122105784196], ["'H200 SU' (unit, GLO, None)", 0.0034693095166739825], ["'autoclave' (unit, GLO, None)", 0.011517985256274494], ["'transport' (ton kilometer, GLO, None)", 9.247113127195448e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00115369417298339], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002476293373373642], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189339228564], ["'scalpel' (unit, GLO, None)", 0.007534488141609495], ["'surgery use' (unit, GLO, None)", 0.003484676944079787]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220894657649065], ["'SUD manufacturing' (unit, GLO, None)", 1.726873704790681], ["'SUD raw materials' (unit, GLO, None)", 0.02314080473594811], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216668792641666], ["'mixed heating grid' (megajoule, GLO, None)", -0.006769517502566591], ["'transport' (ton kilometer, GLO, None)", 0.0004016454079225147], ["'eol SUD' (kilogram, GLO, None)", 0.04896568407332341], ["'surgery use' (unit, GLO, None)", 0.004390461863977383], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433605788822e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493440810729216], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677601196299], ["'MUD raw materials' (unit, GLO, None)", 0.001492127980865618], ["'mechanical disinfection' (unit, GLO, None)", 0.029630370128951044], ["'H200 SU' (unit, GLO, None)", 0.004917604873217172], ["'autoclave' (unit, GLO, None)", 0.014539372381882782], ["'transport' (ton kilometer, GLO, None)", 0.0001642897651142499], ["'mixed heating grid' (megajoule, GLO, None)", -0.001537561410309186], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003229034064835323], ["'eol MUD' (kilogram, GLO, None)", 0.001037055636975974], ["'scalpel' (unit, GLO, None)", 0.01028802442038257], ["'surgery use' (unit, GLO, None)", 0.004390461863977383]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.1995239349962604], ["'SUD manufacturing' (unit, GLO, None)", 102.7921921517095], ["'SUD raw materials' (unit, GLO, None)", 4.33866322235067], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.49007489098674273], ["'mixed heating grid' (megajoule, GLO, None)", -0.6099244397370115], ["'transport' (ton kilometer, GLO, None)", 0.17452026694061046], ["'eol SUD' (kilogram, GLO, None)", 0.9620869877118277], ["'surgery use' (unit, GLO, None)", 0.1764627008724338], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289121688878954]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391798278319657], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.038050653102757036], ["'MUD raw materials' (unit, GLO, None)", 0.04272095769207626], ["'mechanical disinfection' (unit, GLO, None)", 1.1956286661903668], ["'H200 SU' (unit, GLO, None)", 0.2090295353913642], ["'autoclave' (unit, GLO, None)", 0.5913555094328354], ["'transport' (ton kilometer, GLO, None)", 0.07138608607939184], ["'mixed heating grid' (megajoule, GLO, None)", -0.13853221908186575], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11131078175892453], ["'eol MUD' (kilogram, GLO, None)", 0.034499710752962105], ["'scalpel' (unit, GLO, None)", 1.908031089657834], ["'surgery use' (unit, GLO, None)", 0.1764627008724338]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027070056074413], ["'SUD manufacturing' (unit, GLO, None)", 0.2206027902336158], ["'SUD raw materials' (unit, GLO, None)", 0.0683605615555244], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629573922390743], ["'mixed heating grid' (megajoule, GLO, None)", -0.03900049323487184], ["'transport' (ton kilometer, GLO, None)", 0.00285140516269651], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125444184877], ["'surgery use' (unit, GLO, None)", 0.004169947682753907], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597704320632]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04830322458581313], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733702107044698], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456163656864], ["'mechanical disinfection' (unit, GLO, None)", 0.028876560785642966], ["'H200 SU' (unit, GLO, None)", 0.0304158170143104], ["'autoclave' (unit, GLO, None)", 0.01424912746165956], ["'transport' (ton kilometer, GLO, None)", 0.0011663439321963906], ["'mixed heating grid' (megajoule, GLO, None)", -0.008858187213228723], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010515158029713962], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411763481502], ["'scalpel' (unit, GLO, None)", 0.004622564405249475], ["'surgery use' (unit, GLO, None)", 0.004169947682753907]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484369886260647e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001923555560798108], ["'SUD raw materials' (unit, GLO, None)", 4.92830018999675e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001461252690230981], ["'mixed heating grid' (megajoule, GLO, None)", -3.5092121954542726e-05], ["'transport' (ton kilometer, GLO, None)", 6.466689906558128e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930307512929e-06], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989248632748e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877221609664109], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074484534983e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708853636569e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00010690828567498169], ["'H200 SU' (unit, GLO, None)", 3.474366379547855e-06], ["'autoclave' (unit, GLO, None)", 5.6280928371485925e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451465518064267e-07], ["'mixed heating grid' (megajoule, GLO, None)", -7.970478324742008e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3189453752557606e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645601471194e-07], ["'scalpel' (unit, GLO, None)", 1.328097438465706e-05], ["'surgery use' (unit, GLO, None)", 1.420379213168067e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024756531852e-06], ["'SUD manufacturing' (unit, GLO, None)", 5.939690711054542e-05], ["'SUD raw materials' (unit, GLO, None)", 9.42156071366807e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654930631718861e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.908743338560248e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012361789842e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754232470207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571635469e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921412037711492e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570653345816e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908300022717072e-08], ["'mechanical disinfection' (unit, GLO, None)", 4.770289199363628e-05], ["'H200 SU' (unit, GLO, None)", 1.406074533361694e-06], ["'autoclave' (unit, GLO, None)", 3.853277991901368e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255077880163e-07], ["'mixed heating grid' (megajoule, GLO, None)", -8.877933941222144e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8743162476358997e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702536090084e-08], ["'scalpel' (unit, GLO, None)", 2.281517577137207e-06], ["'surgery use' (unit, GLO, None)", 1.42352911120388e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189687501730286], ["'SUD manufacturing' (unit, GLO, None)", 0.1693128743256003], ["'SUD raw materials' (unit, GLO, None)", 0.02807747623335543], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567002916728123], ["'mixed heating grid' (megajoule, GLO, None)", -0.005547084885158837], ["'transport' (ton kilometer, GLO, None)", 0.0004686718612997315], ["'eol SUD' (kilogram, GLO, None)", 0.005098283646057122], ["'surgery use' (unit, GLO, None)", 0.001498455105585213], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.77900713490845e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0183838561364802], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000679213388622571], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185221493995], ["'mechanical disinfection' (unit, GLO, None)", 0.01059841729578767], ["'H200 SU' (unit, GLO, None)", 0.0013291292135014015], ["'autoclave' (unit, GLO, None)", 0.0053670228516931725], ["'transport' (ton kilometer, GLO, None)", 0.00019170638700155543], ["'mixed heating grid' (megajoule, GLO, None)", -0.0012599101274050797], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003308605505743824], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721926196791], ["'scalpel' (unit, GLO, None)", 0.01104604511932704], ["'surgery use' (unit, GLO, None)", 0.001498455105585213]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965376405734], ["'SUD manufacturing' (unit, GLO, None)", 19.78708885728676], ["'SUD raw materials' (unit, GLO, None)", 0.3179891275467485], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998010666681026], ["'mixed heating grid' (megajoule, GLO, None)", -0.15076655681229187], ["'transport' (ton kilometer, GLO, None)", 0.0071217157155639725], ["'eol SUD' (kilogram, GLO, None)", 0.5721151079693373], ["'surgery use' (unit, GLO, None)", 0.04545673328065242], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00172736711046682]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174115365017082], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.01017330524341225], ["'MUD raw materials' (unit, GLO, None)", 0.01792910688333572], ["'mechanical disinfection' (unit, GLO, None)", 0.3265408537146491], ["'H200 SU' (unit, GLO, None)", 0.04013472987752573], ["'autoclave' (unit, GLO, None)", 0.16785238419246692], ["'transport' (ton kilometer, GLO, None)", 0.002913079495100783], ["'mixed heating grid' (megajoule, GLO, None)", -0.03424362809193981], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.059049319700066154], ["'eol MUD' (kilogram, GLO, None)", 0.009933703786774667], ["'scalpel' (unit, GLO, None)", 0.129390960546826], ["'surgery use' (unit, GLO, None)", 0.04545673328065242]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756602714635], ["'SUD manufacturing' (unit, GLO, None)", 0.08032177251599368], ["'SUD raw materials' (unit, GLO, None)", 0.009525746052058281], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822217518958], ["'mixed heating grid' (megajoule, GLO, None)", -0.009079900876070695], ["'transport' (ton kilometer, GLO, None)", 0.00014709200211625133], ["'eol SUD' (kilogram, GLO, None)", 0.00041893230089478886], ["'surgery use' (unit, GLO, None)", 0.004535809354737391], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756590294491e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05134164128711331], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.001038011982160958], ["'MUD raw materials' (unit, GLO, None)", 7.749260537636715e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0311543495476812], ["'H200 SU' (unit, GLO, None)", -0.0007266235736580722], ["'autoclave' (unit, GLO, None)", 0.015046926448638276], ["'transport' (ton kilometer, GLO, None)", 6.016677895773607e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.002062319093079491], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012096547802060745], ["'eol MUD' (kilogram, GLO, None)", 1.3671574715111191e-05], ["'scalpel' (unit, GLO, None)", 0.001982239180938901], ["'surgery use' (unit, GLO, None)", 0.004535809354737391]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954199993103342], ["'SUD manufacturing' (unit, GLO, None)", 0.05565814158847772], ["'SUD raw materials' (unit, GLO, None)", 0.003024483115416474], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0387652396708231], ["'mixed heating grid' (megajoule, GLO, None)", -0.09323111856521758], ["'transport' (ton kilometer, GLO, None)", 0.00034491097852358337], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345415667186], ["'surgery use' (unit, GLO, None)", 0.003318171013100557], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.556993778752915e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0366445819592032], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748527480972856], ["'MUD raw materials' (unit, GLO, None)", 5.159391437725069e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.02214709439475192], ["'H200 SU' (unit, GLO, None)", -0.014343507867920137], ["'autoclave' (unit, GLO, None)", 0.010759109157807008], ["'transport' (ton kilometer, GLO, None)", 0.00014108301135587107], ["'mixed heating grid' (megajoule, GLO, None)", -0.021175596354022247], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008804754563416554], ["'eol MUD' (kilogram, GLO, None)", 4.808304412933896e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739193472854], ["'surgery use' (unit, GLO, None)", 0.003318171013100557]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794912858025], ["'SUD manufacturing' (unit, GLO, None)", 0.0671657758712906], ["'SUD raw materials' (unit, GLO, None)", 0.00894178767800682], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929819163319002], ["'mixed heating grid' (megajoule, GLO, None)", -0.000717775653847763], ["'transport' (ton kilometer, GLO, None)", 0.00010199917707093223], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470945325926], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.3386352905518035e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00284794801855528], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777111222930905], ["'MUD raw materials' (unit, GLO, None)", 0.000153526737216424], ["'mechanical disinfection' (unit, GLO, None)", 0.0014413911021456287], ["'H200 SU' (unit, GLO, None)", 0.0004879890831329588], ["'autoclave' (unit, GLO, None)", 0.0008828841923598854], ["'transport' (ton kilometer, GLO, None)", 4.172192812935901e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001630284796807656], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.000270962157362916], ["'eol MUD' (kilogram, GLO, None)", 1.4054603023976041e-05], ["'scalpel' (unit, GLO, None)", 0.003450867593807416], ["'surgery use' (unit, GLO, None)", 0.0001855135937336527]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474511315416e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.961653707521734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.265723150617097e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.006293746047353e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.2850381684003046e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998951372077e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611566054476e-08], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955160033841e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201650328347131e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.040362620933696e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568127082263e-09], ["'mechanical disinfection' (unit, GLO, None)", 1.291569130594569e-07], ["'H200 SU' (unit, GLO, None)", -1.1497546740642822e-08], ["'autoclave' (unit, GLO, None)", 6.735233586075814e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897512931084277e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.918708900239334e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.556897923517842e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387468732307e-09], ["'scalpel' (unit, GLO, None)", 9.885788092474081e-09], ["'surgery use' (unit, GLO, None)", 1.752618458583908e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421229194726e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005208655732008955], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388322526986], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504420314707063], ["'mixed heating grid' (megajoule, GLO, None)", -0.0001999496915983528], ["'transport' (ton kilometer, GLO, None)", 6.510637374051772e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135809039451016e-05], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944150902007e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002368734880398516], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725123224183243e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252884759238e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00013032162550958426], ["'H200 SU' (unit, GLO, None)", 4.71706656835522e-05], ["'autoclave' (unit, GLO, None)", 6.70888199711274e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229035074025e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.541460003438789e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.29439111018186e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158824416373e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094730210608], ["'surgery use' (unit, GLO, None)", 1.849324470579176e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00018987037222633203], ["'SUD manufacturing' (unit, GLO, None)", 0.003672453650123185], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415132606861], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00035428298659542865], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005066568822907527], ["'transport' (ton kilometer, GLO, None)", 1.4408454496546526e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144159108727e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969025918900004e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004060804858455592], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092901268128774e-05], ["'MUD raw materials' (unit, GLO, None)", 5.36047364790986e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00023787030473170856], ["'H200 SU' (unit, GLO, None)", 6.677366964181293e-05], ["'autoclave' (unit, GLO, None)", 0.00011899002506786799], ["'transport' (ton kilometer, GLO, None)", 5.893660323769116e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011507704503053125], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.046834662845547e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350636281018e-06], ["'scalpel' (unit, GLO, None)", 6.410695268583662e-05], ["'surgery use' (unit, GLO, None)", 3.418726649608354e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078741262582], ["'SUD manufacturing' (unit, GLO, None)", 0.003766581488433622], ["'SUD raw materials' (unit, GLO, None)", 0.0004353568964866489], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036227947147476626], ["'mixed heating grid' (megajoule, GLO, None)", -0.0005248497039873228], ["'transport' (ton kilometer, GLO, None)", 1.6300400097491155e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421649441565e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880184595593e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004163730817578929], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724628480901094e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499652186560074e-06], ["'mechanical disinfection' (unit, GLO, None)", 0.00024386385863275307], ["'H200 SU' (unit, GLO, None)", 7.257876053678718e-05], ["'autoclave' (unit, GLO, None)", 0.00012201924301440558], ["'transport' (ton kilometer, GLO, None)", 6.6675451790594225e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00011920918304105806], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.22845894101461e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056978586543e-06], ["'scalpel' (unit, GLO, None)", 6.661414618403667e-05], ["'surgery use' (unit, GLO, None)", 3.50305548621488e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758669815752], ["'SUD manufacturing' (unit, GLO, None)", 0.01074980917895688], ["'SUD raw materials' (unit, GLO, None)", 0.004321421002051686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790865000377684], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007832484765892859], ["'transport' (ton kilometer, GLO, None)", 1.4729126159667161e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943448671287], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961758439202e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411028207931884], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736312783656947], ["'MUD raw materials' (unit, GLO, None)", 2.571622912195929e-05], ["'mechanical disinfection' (unit, GLO, None)", 0.0020001012018192716], ["'H200 SU' (unit, GLO, None)", 0.00030707171933939227], ["'autoclave' (unit, GLO, None)", 0.0010413696915687128], ["'transport' (ton kilometer, GLO, None)", 6.024828441650469e-06], ["'mixed heating grid' (megajoule, GLO, None)", -0.00017789933061411673], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007220663823154733], ["'eol MUD' (kilogram, GLO, None)", 1.2165982318170018e-05], ["'scalpel' (unit, GLO, None)", 0.001017723697383506], ["'surgery use' (unit, GLO, None)", 0.0002884118717211416]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2850469472542877e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.954979666617218e-09], ["'SUD raw materials' (unit, GLO, None)", 1.13050867721762e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857761290040134e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.4048055835024421e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920504224835e-11], ["'eol SUD' (kilogram, GLO, None)", 1.251683332697216e-09], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307415529949e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238557975404641e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929599543815468e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065958018088411e-11], ["'mechanical disinfection' (unit, GLO, None)", 7.260636099423687e-10], ["'H200 SU' (unit, GLO, None)", 1.5716040759546777e-10], ["'autoclave' (unit, GLO, None)", 3.6183316931805363e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100415439382e-11], ["'mixed heating grid' (megajoule, GLO, None)", -3.1907367893816693e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.4661249118736226e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931530033267e-11], ["'scalpel' (unit, GLO, None)", 2.839170232281382e-10], ["'surgery use' (unit, GLO, None)", 1.051771766883504e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691844959667504e-07], ["'SUD manufacturing' (unit, GLO, None)", 9.132213921451894e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527679456734e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989094492108133e-07], ["'mixed heating grid' (megajoule, GLO, None)", -3.060423046072301e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717588922652664e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078092539192e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753652545843e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.3335115239521e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214316274543e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001798438176e-08], ["'mechanical disinfection' (unit, GLO, None)", 3.005423093158674e-07], ["'H200 SU' (unit, GLO, None)", 1.2524711953639605e-07], ["'autoclave' (unit, GLO, None)", 1.524635862883083e-07], ["'transport' (ton kilometer, GLO, None)", 6.42915104051957e-09], ["'mixed heating grid' (megajoule, GLO, None)", -6.951142933122763e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.401338448867124e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888516200038e-08], ["'scalpel' (unit, GLO, None)", 2.5910084637179e-07], ["'surgery use' (unit, GLO, None)", 4.273807694452745e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350049888184], ["'SUD manufacturing' (unit, GLO, None)", 0.0677477979825455], ["'SUD raw materials' (unit, GLO, None)", 0.02624265141776931], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643950324933564], ["'mixed heating grid' (megajoule, GLO, None)", -0.012234926591525593], ["'transport' (ton kilometer, GLO, None)", 0.0012316580464652887], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153516257608], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475916586417e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009969443249363337], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0036523864332740426], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366404156433], ["'mechanical disinfection' (unit, GLO, None)", 0.005860579632790159], ["'H200 SU' (unit, GLO, None)", 0.012299138920134383], ["'autoclave' (unit, GLO, None)", 0.0029538066449533804], ["'transport' (ton kilometer, GLO, None)", 0.0005037996380974315], ["'mixed heating grid' (megajoule, GLO, None)", -0.002778920503265277], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.001963301703167022], ["'eol MUD' (kilogram, GLO, None)", 4.020532856970079e-05], ["'scalpel' (unit, GLO, None)", 0.001988557805401264], ["'surgery use' (unit, GLO, None)", 0.0008241894490111075]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519365920087], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345123817255], ["'SUD raw materials' (unit, GLO, None)", 0.002301881209050565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004261825181985166], ["'mixed heating grid' (megajoule, DK, None)", -0.0005016264266261211], ["'transport' (ton kilometer, GLO, None)", 1.2469163709814673e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280039811387766e-05], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896319973864852e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838743237552608], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461118693884285e-05], ["'MUD raw materials' (unit, GLO, None)", 2.079559274514854e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089228537572], ["'H200 SU' (unit, GLO, None)", 9.705158285606127e-05], ["'autoclave' (unit, DK, None)", 0.00019260260171707975], ["'transport' (ton kilometer, GLO, None)", 5.100409307933102e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00011393447696666607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.67988977708047e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136925188e-06], ["'scalpel' (unit, GLO, None)", 0.0008694889994236557], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787133523176], ["'SUD manufacturing' (unit, GLO, None)", 0.7599392831299568], ["'SUD raw materials' (unit, GLO, None)", 0.1652473764922311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1758314145278802], ["'mixed heating grid' (megajoule, DK, None)", -0.14672767633167821], ["'transport' (ton kilometer, GLO, None)", 0.009047771163788833], ["'eol SUD' (kilogram, GLO, None)", 0.4215931851306179], ["'surgery use' (unit, DK, None)", 0.01623028470842695], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838645184927]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127277472248], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432756999087625], ["'MUD raw materials' (unit, GLO, None)", 0.000994739537216495], ["'mechanical disinfection' (unit, DK, None)", 0.1121100967278825], ["'H200 SU' (unit, GLO, None)", 0.0857768559144634], ["'autoclave' (unit, DK, None)", 0.0556477239856866], ["'transport' (ton kilometer, GLO, None)", 0.003700916704102135], ["'mixed heating grid' (megajoule, DK, None)", -0.033326276631442345], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03993661493138059], ["'eol MUD' (kilogram, GLO, None)", 0.014436586095175008], ["'scalpel' (unit, GLO, None)", 0.01744137793233663], ["'surgery use' (unit, DK, None)", 0.01623028470842695]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190771570295122], ["'SUD manufacturing' (unit, GLO, None)", 1.34539063149911], ["'SUD raw materials' (unit, GLO, None)", 0.01684144098305416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090253365368311], ["'mixed heating grid' (megajoule, DK, None)", -0.007721224126291775], ["'transport' (ton kilometer, GLO, None)", 0.000226067677241755], ["'eol SUD' (kilogram, GLO, None)", 0.03563855013414572], ["'surgery use' (unit, DK, None)", 0.003484677133467028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907261517659e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348092831099516], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004302866298631196], ["'MUD raw materials' (unit, GLO, None)", 0.000957582374855469], ["'mechanical disinfection' (unit, DK, None)", 0.02349312256472459], ["'H200 SU' (unit, GLO, None)", 0.003053382324642625], ["'autoclave' (unit, DK, None)", 0.011517985130721331], ["'transport' (ton kilometer, GLO, None)", 9.247113215131576e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0017537226622773936], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002476294065384549], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189347653251], ["'scalpel' (unit, GLO, None)", 0.007534488146906168], ["'surgery use' (unit, DK, None)", 0.003484677133467028]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220896430468352], ["'SUD manufacturing' (unit, GLO, None)", 1.727145787551799], ["'SUD raw materials' (unit, GLO, None)", 0.02314080446120313], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216673003594804], ["'mixed heating grid' (megajoule, DK, None)", -0.010101224539611599], ["'transport' (ton kilometer, GLO, None)", 0.00040164541094863906], ["'eol SUD' (kilogram, GLO, None)", 0.048965684098354265], ["'surgery use' (unit, DK, None)", 0.004390462130056122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433565686894e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493461945319568], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677976197316], ["'MUD raw materials' (unit, GLO, None)", 0.001492127977962738], ["'mechanical disinfection' (unit, DK, None)", 0.029630370828354784], ["'H200 SU' (unit, GLO, None)", 0.00439301581594786], ["'autoclave' (unit, DK, None)", 0.014539372203261859], ["'transport' (ton kilometer, GLO, None)", 0.0001642897663520613], ["'mixed heating grid' (megajoule, DK, None)", -0.002294292472556051], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003229035021269726], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638031526], ["'scalpel' (unit, GLO, None)", 0.01028802442383592], ["'surgery use' (unit, DK, None)", 0.004390462130056122]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.19952394516403643], ["'SUD manufacturing' (unit, GLO, None)", 102.7754548778297], ["'SUD raw materials' (unit, GLO, None)", 4.338663208958223], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900752997394751], ["'mixed heating grid' (megajoule, DK, None)", -0.7495181682058017], ["'transport' (ton kilometer, GLO, None)", 0.17452026725950523], ["'eol SUD' (kilogram, GLO, None)", 0.9620869888589813], ["'surgery use' (unit, DK, None)", 0.1764627279822105], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912147123218]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785339053278], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805065385590452], ["'MUD raw materials' (unit, GLO, None)", 0.04272095737751461], ["'mechanical disinfection' (unit, DK, None)", 1.195628752563316], ["'H200 SU' (unit, GLO, None)", 0.18702689230809583], ["'autoclave' (unit, DK, None)", 0.591355487088877], ["'transport' (ton kilometer, GLO, None)", 0.07138608620983314], ["'mixed heating grid' (megajoule, DK, None)", -0.1702381611868111], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11131087459899251], ["'eol MUD' (kilogram, GLO, None)", 0.03449971081533548], ["'scalpel' (unit, GLO, None)", 1.908031088024951], ["'surgery use' (unit, DK, None)", 0.1764627279822105]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.040270700631976755], ["'SUD manufacturing' (unit, GLO, None)", 0.2078211747333292], ["'SUD raw materials' (unit, GLO, None)", 0.06836056082183165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629575535071225], ["'mixed heating grid' (megajoule, DK, None)", -0.0420240805648197], ["'transport' (ton kilometer, GLO, None)", 0.0028514051793663716], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125066309416], ["'surgery use' (unit, DK, None)", 0.004169948884327652], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001630159779552044]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829331504022556], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733701957970279], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456027417362], ["'mechanical disinfection' (unit, DK, None)", 0.028876566521638475], ["'H200 SU' (unit, GLO, None)", 0.029939321642561325], ["'autoclave' (unit, DK, None)", 0.014249126762558035], ["'transport' (ton kilometer, GLO, None)", 0.001166343939015061], ["'mixed heating grid' (megajoule, DK, None)", -0.009544935005440652], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010515161692597502], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411677999388], ["'scalpel' (unit, GLO, None)", 0.004622564273706609], ["'surgery use' (unit, DK, None)", 0.004169948884327652]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484370080897868e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726230965406], ["'SUD raw materials' (unit, GLO, None)", 4.928300120534907e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612528725185356], ["'mixed heating grid' (megajoule, DK, None)", -4.547242648471373e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690065164085e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930293101804e-06], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989251022216e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230726548113], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074388891692e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708838895536e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829119814081], ["'H200 SU' (unit, GLO, None)", 1.8407043360211596e-06], ["'autoclave' (unit, DK, None)", 5.628092746576836e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451466166828946e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0328158272655188e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3189457892857505e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645633522092e-07], ["'scalpel' (unit, GLO, None)", 1.32809742643471e-05], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024767606077e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042956859167487e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421560635483897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654932859245676e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.938082536465836e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012384102354e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754195732567e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571731175e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492190242033e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570467673068e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908299841533906e-08], ["'mechanical disinfection' (unit, DK, None)", 4.77028927585696e-05], ["'H200 SU' (unit, GLO, None)", 1.2364749473015247e-06], ["'autoclave' (unit, DK, None)", 3.853277982874982e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255169147664e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.1215873429846246e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8743167535743915e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702488399205e-08], ["'scalpel' (unit, GLO, None)", 2.281517559964449e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0031896874798060283], ["'SUD manufacturing' (unit, GLO, None)", 0.1684747943589419], ["'SUD raw materials' (unit, GLO, None)", 0.0280774756623421], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01456702731506721], ["'mixed heating grid' (megajoule, DK, None)", -0.0066968777645404895], ["'transport' (ton kilometer, GLO, None)", 0.0004686718856624247], ["'eol SUD' (kilogram, GLO, None)", 0.005098283595451853], ["'surgery use' (unit, DK, None)", 0.001498456903453627], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790072140393596e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838321217589241], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792131444300086], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185015901487], ["'mechanical disinfection' (unit, DK, None)", 0.010598425706965772], ["'H200 SU' (unit, GLO, None)", 0.001148207253001874], ["'autoclave' (unit, DK, None)", 0.005367021740187213], ["'transport' (ton kilometer, GLO, None)", 0.00019170639696691557], ["'mixed heating grid' (megajoule, DK, None)", -0.0015210627369544665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033086110473421536], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219201215626], ["'scalpel' (unit, GLO, None)", 0.0110460449285302], ["'surgery use' (unit, DK, None)", 0.001498456903453627]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965575741768], ["'SUD manufacturing' (unit, GLO, None)", 19.78402507622324], ["'SUD raw materials' (unit, GLO, None)", 0.3179891244207774], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998016654916806], ["'mixed heating grid' (megajoule, DK, None)", -0.18547757601221537], ["'transport' (ton kilometer, GLO, None)", 0.007121715755196622], ["'eol SUD' (kilogram, GLO, None)", 0.5721151081595656], ["'surgery use' (unit, DK, None)", 0.04545673720178598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001727367107002578]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174091657785048], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.010173305567389086], ["'MUD raw materials' (unit, GLO, None)", 0.01792910683827502], ["'mechanical disinfection' (unit, DK, None)", 0.3265408656263925], ["'H200 SU' (unit, GLO, None)", 0.03466031867021883], ["'autoclave' (unit, DK, None)", 0.16785238101940614], ["'transport' (ton kilometer, GLO, None)", 0.002913079511312194], ["'mixed heating grid' (megajoule, DK, None)", -0.042127546497360696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05904933330115485], ["'eol MUD' (kilogram, GLO, None)", 0.009933703796814304], ["'scalpel' (unit, GLO, None)", 0.1293909604392985], ["'surgery use' (unit, DK, None)", 0.04545673720178598]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756620039246], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765710080897], ["'SUD raw materials' (unit, GLO, None)", 0.009525745953512153], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822438116921], ["'mixed heating grid' (megajoule, DK, None)", -0.012335843411569429], ["'transport' (ton kilometer, GLO, None)", 0.00014709200396484517], ["'eol SUD' (kilogram, GLO, None)", 0.0004189322962871583], ["'surgery use' (unit, DK, None)", 0.004535809503117571], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756595564487e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719681543405], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380119668226553], ["'MUD raw materials' (unit, GLO, None)", 7.749260368739991e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435022870473], ["'H200 SU' (unit, GLO, None)", -0.001238022519561565], ["'autoclave' (unit, DK, None)", 0.01504692633140725], ["'transport' (ton kilometer, GLO, None)", 6.016677971388824e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0028018417540178883], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012096548303105222], ["'eol MUD' (kilogram, GLO, None)", 1.367157470718583e-05], ["'scalpel' (unit, GLO, None)", 0.001982239167620606], ["'surgery use' (unit, DK, None)", 0.004535809503117571]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01495419993799971], ["'SUD manufacturing' (unit, GLO, None)", 0.0561156117744304], ["'SUD raw materials' (unit, GLO, None)", 0.003024483034777371], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524231731199], ["'mixed heating grid' (megajoule, DK, None)", -0.09561707084811755], ["'transport' (ton kilometer, GLO, None)", 0.00034491098010774765], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345814792849], ["'surgery use' (unit, DK, None)", 0.003318171191551107], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569937780627663e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493694325042], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004774852778790015], ["'MUD raw materials' (unit, GLO, None)", 5.159391355434921e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147094554850144], ["'H200 SU' (unit, GLO, None)", -0.014719080159021172], ["'autoclave' (unit, DK, None)", 0.010759109045114663], ["'transport' (ton kilometer, GLO, None)", 0.0001410830120038605], ["'mixed heating grid' (megajoule, DK, None)", -0.02171751801322989], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008804755164513964], ["'eol MUD' (kilogram, GLO, None)", 4.808304713632667e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739206395425], ["'surgery use' (unit, DK, None)", 0.003318171191551107]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794920953041], ["'SUD manufacturing' (unit, GLO, None)", 0.06718159511666533], ["'SUD raw materials' (unit, GLO, None)", 0.008941787598427014], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929846874703038], ["'mixed heating grid' (megajoule, DK, None)", -0.0008644863528490279], ["'transport' (ton kilometer, GLO, None)", 0.00010199917962308576], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470483031997], ["'surgery use' (unit, DK, None)", 0.0001855137862147646], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338635341974807e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847960919481655], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777109018804663], ["'MUD raw materials' (unit, GLO, None)", 0.0001535267349925197], ["'mechanical disinfection' (unit, DK, None)", 0.0014413919788279113], ["'H200 SU' (unit, GLO, None)", 0.00046490697014623224], ["'autoclave' (unit, DK, None)", 0.0008828840752036018], ["'transport' (ton kilometer, GLO, None)", 4.1721929173296514e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001963509002488942], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002709627867719875], ["'eol MUD' (kilogram, GLO, None)", 1.4054602991276768e-05], ["'scalpel' (unit, GLO, None)", 0.003450867573325909], ["'surgery use' (unit, DK, None)", 0.0001855137862147646]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474516531159e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017151881734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.26572308310134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062940026944098e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.4112135734983012e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998976948726e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611560119745e-08], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955171458108e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578546410771e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0403623721158726e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568105155487e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2915692237946214e-07], ["'H200 SU' (unit, GLO, None)", -1.3479383164661935e-08], ["'autoclave' (unit, DK, None)", 6.735233475821334e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513035703465e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.205291265578156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.5568985064406785e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387459111088e-09], ["'scalpel' (unit, GLO, None)", 9.885787867502099e-09], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421277883432e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053973963947272], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388285747852], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504434793501152], ["'mixed heating grid' (megajoule, DK, None)", -0.00021395678447783903], ["'transport' (ton kilometer, GLO, None)", 6.510637517039441e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135808765582737e-05], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944155568174e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367535495990968], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725121966463753e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252761364081e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00013032167613963612], ["'H200 SU' (unit, GLO, None)", 4.493762881624555e-05], ["'autoclave' (unit, DK, None)", 6.70888134682422e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229619953375e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.8596032902232486e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.294394398752482e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158796540539e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094718839251], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001898703728314704], ["'SUD manufacturing' (unit, GLO, None)", 0.003514347484129896], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415078126303], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542832660999431], ["'mixed heating grid' (megajoule, DK, None)", -0.0005317123848007808], ["'transport' (ton kilometer, GLO, None)", 1.4408454788237433e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144093824972e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969026051784707e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059579321840019], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092898497035306e-05], ["'MUD raw materials' (unit, GLO, None)", 5.360473406424085e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023787040768632139], ["'H200 SU' (unit, GLO, None)", 6.281548908238727e-05], ["'autoclave' (unit, DK, None)", 0.00011899001343028971], ["'transport' (ton kilometer, GLO, None)", 5.893660443082892e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.0001207679046465553], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.046841011235677e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506247403857e-06], ["'scalpel' (unit, GLO, None)", 6.410695028769174e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078814972877], ["'SUD manufacturing' (unit, GLO, None)", 0.003606847974303233], ["'SUD raw materials' (unit, GLO, None)", 0.000435356890188297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036227975952596373], ["'mixed heating grid' (megajoule, DK, None)", -0.0005505275134253045], ["'transport' (ton kilometer, GLO, None)", 1.6300400396661054e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421582064019e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880327110964e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162492680174823], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372462564242879e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499651938197167e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386396445205073], ["'H200 SU' (unit, GLO, None)", 6.852235567145167e-05], ["'autoclave' (unit, DK, None)", 0.00012201923105121151], ["'transport' (ton kilometer, GLO, None)", 6.6675453014324205e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00012504138731235875], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.228465483525677e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056853048946e-06], ["'scalpel' (unit, GLO, None)", 6.661414373127373e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00135587586841775], ["'SUD manufacturing' (unit, GLO, None)", 0.0108567137648576], ["'SUD raw materials' (unit, GLO, None)", 0.004321420989160224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790868214642398], ["'mixed heating grid' (megajoule, DK, None)", -0.0009914752549239558], ["'transport' (ton kilometer, GLO, None)", 1.4729126450706737e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943389199024], ["'surgery use' (unit, DK, None)", 0.00028841189473513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961769536833e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111204440431], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002473631252815651], ["'MUD raw materials' (unit, GLO, None)", 2.571622886045624e-05], ["'mechanical disinfection' (unit, DK, None)", 0.002000101309655717], ["'H200 SU' (unit, GLO, None)", 0.00027431531880630977], ["'autoclave' (unit, DK, None)", 0.001041369677771263], ["'transport' (ton kilometer, GLO, None)", 6.0248285606978244e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00022519390645929442], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007220664553211148], ["'eol MUD' (kilogram, GLO, None)", 1.2165982309575449e-05], ["'scalpel' (unit, GLO, None)", 0.001017723695010102], ["'surgery use' (unit, DK, None)", 0.00028841189473513]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.285046956474547e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739542769673668e-09], ["'SUD raw materials' (unit, GLO, None)", 1.130508664102505e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857765018491497e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4815589637473403e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920539583983e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833319921738e-09], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307432020232e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238390968774466e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.92959923163088e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065957987357341e-11], ["'mechanical disinfection' (unit, DK, None)", 7.260637362257631e-10], ["'H200 SU' (unit, GLO, None)", 1.4508217483548533e-10], ["'autoclave' (unit, DK, None)", 3.6183315261364114e-10], ["'transport' (ton kilometer, GLO, None)", 1.463110056007308e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.365066843969163e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.466125758717327e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931520615686e-11], ["'scalpel' (unit, GLO, None)", 2.839170203322277e-10], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691845048519947e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.977744436204676e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527598563428e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989121214708747e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.3802030895128524e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589181820996e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078087538045e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753746733194e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332314081913749e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214082312517e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001775744364e-08], ["'mechanical disinfection' (unit, DK, None)", 3.005424017823394e-07], ["'H200 SU' (unit, GLO, None)", 1.2019632866780766e-07], ["'autoclave' (unit, DK, None)", 1.5246357407201924e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151146530252e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.677459770910348e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.401344518375316e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888510676228e-08], ["'scalpel' (unit, GLO, None)", 2.59100844273357e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350078653827], ["'SUD manufacturing' (unit, GLO, None)", 0.06571186791850801], ["'SUD raw materials' (unit, GLO, None)", 0.02624265116855249], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643955448402395], ["'mixed heating grid' (megajoule, DK, None)", -0.012837630361736454], ["'transport' (ton kilometer, GLO, None)", 0.0012316580519658904], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153401659106], ["'surgery use' (unit, DK, None)", 0.000824189830257957], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475948211392e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967865449574197], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003652386386965933], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366361264842], ["'mechanical disinfection' (unit, DK, None)", 0.005860581428324106], ["'H200 SU' (unit, GLO, None)", 0.012204217943285025], ["'autoclave' (unit, DK, None)", 0.0029538064264566285], ["'transport' (ton kilometer, GLO, None)", 0.0005037996403474077], ["'mixed heating grid' (megajoule, DK, None)", -0.00291581269071774], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019633028668612483], ["'eol MUD' (kilogram, GLO, None)", 4.0205328281252854e-05], ["'scalpel' (unit, GLO, None)", 0.001988557764459031], ["'surgery use' (unit, DK, None)", 0.000824189830257957]]</t>
   </si>
 </sst>
 </file>

--- a/results/case2_apos/data_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_case2_apos_recipe.xlsx
@@ -14,195 +14,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>MUD</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519365920087], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345123817255], ["'SUD raw materials' (unit, GLO, None)", 0.002301881209050565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004261825181985166], ["'mixed heating grid' (megajoule, DK, None)", -0.0005016264266261211], ["'transport' (ton kilometer, GLO, None)", 1.2469163709814673e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280039811387766e-05], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896319973864852e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838743237552608], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461118693884285e-05], ["'MUD raw materials' (unit, GLO, None)", 2.079559274514854e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089228537572], ["'H200 SU' (unit, GLO, None)", 9.705158285606127e-05], ["'autoclave' (unit, DK, None)", 0.00019260260171707975], ["'transport' (ton kilometer, GLO, None)", 5.100409307933102e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00011393447696666607], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -9.67988977708047e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136925188e-06], ["'scalpel' (unit, GLO, None)", 0.0008694889994236557], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838743237552608], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461118693884285e-05], ["'MUD raw materials' (unit, GLO, None)", 2.079559274514854e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089228537572], ["'H200 SU' (unit, GLO, None)", 9.705158285606127e-05], ["'autoclave' (unit, DK, None)", 0.00016508794432892556], ["'transport' (ton kilometer, GLO, None)", 5.100409307933102e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0757254140234862e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635393385893735e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136925188e-06], ["'scalpel' (unit, GLO, None)", 0.0008694889994236557], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787133523176], ["'SUD manufacturing' (unit, GLO, None)", 0.7599392831299568], ["'SUD raw materials' (unit, GLO, None)", 0.1652473764922311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1758314145278802], ["'mixed heating grid' (megajoule, DK, None)", -0.14672767633167821], ["'transport' (ton kilometer, GLO, None)", 0.009047771163788833], ["'eol SUD' (kilogram, GLO, None)", 0.4215931851306179], ["'surgery use' (unit, DK, None)", 0.01623028470842695], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838645184927]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127277472248], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432756999087625], ["'MUD raw materials' (unit, GLO, None)", 0.000994739537216495], ["'mechanical disinfection' (unit, DK, None)", 0.1121100967278825], ["'H200 SU' (unit, GLO, None)", 0.0857768559144634], ["'autoclave' (unit, DK, None)", 0.0556477239856866], ["'transport' (ton kilometer, GLO, None)", 0.003700916704102135], ["'mixed heating grid' (megajoule, DK, None)", -0.033326276631442345], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03993661493138059], ["'eol MUD' (kilogram, GLO, None)", 0.014436586095175008], ["'scalpel' (unit, GLO, None)", 0.01744137793233663], ["'surgery use' (unit, DK, None)", 0.01623028470842695]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127277472248], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432756999087625], ["'MUD raw materials' (unit, GLO, None)", 0.000994739537216495], ["'mechanical disinfection' (unit, DK, None)", 0.1121100967278825], ["'H200 SU' (unit, GLO, None)", 0.0857768559144634], ["'autoclave' (unit, DK, None)", 0.047698049130588525], ["'transport' (ton kilometer, GLO, None)", 0.003700916704102135], ["'mixed heating grid' (megajoule, DK, None)", -0.006071577383806382], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007275887753220638], ["'eol MUD' (kilogram, GLO, None)", 0.014436586095175008], ["'scalpel' (unit, GLO, None)", 0.01744137793233663], ["'surgery use' (unit, DK, None)", 0.01623028470842695]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190771570295122], ["'SUD manufacturing' (unit, GLO, None)", 1.34539063149911], ["'SUD raw materials' (unit, GLO, None)", 0.01684144098305416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090253365368311], ["'mixed heating grid' (megajoule, DK, None)", -0.007721224126291775], ["'transport' (ton kilometer, GLO, None)", 0.000226067677241755], ["'eol SUD' (kilogram, GLO, None)", 0.03563855013414572], ["'surgery use' (unit, DK, None)", 0.003484677133467028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907261517659e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348092831099516], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004302866298631196], ["'MUD raw materials' (unit, GLO, None)", 0.000957582374855469], ["'mechanical disinfection' (unit, DK, None)", 0.02349312256472459], ["'H200 SU' (unit, GLO, None)", 0.003053382324642625], ["'autoclave' (unit, DK, None)", 0.011517985130721331], ["'transport' (ton kilometer, GLO, None)", 9.247113215131576e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0017537226622773936], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.002476294065384549], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189347653251], ["'scalpel' (unit, GLO, None)", 0.007534488146906168], ["'surgery use' (unit, DK, None)", 0.003484677133467028]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348092831099516], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004302866298631196], ["'MUD raw materials' (unit, GLO, None)", 0.000957582374855469], ["'mechanical disinfection' (unit, DK, None)", 0.02349312256472459], ["'H200 SU' (unit, GLO, None)", 0.003053382324642625], ["'autoclave' (unit, DK, None)", 0.00987255868347543], ["'transport' (ton kilometer, GLO, None)", 9.247113215131576e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00031950352484640305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00045114583934221126], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189347653251], ["'scalpel' (unit, GLO, None)", 0.007534488146906168], ["'surgery use' (unit, DK, None)", 0.003484677133467028]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220896430468352], ["'SUD manufacturing' (unit, GLO, None)", 1.727145787551799], ["'SUD raw materials' (unit, GLO, None)", 0.02314080446120313], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216673003594804], ["'mixed heating grid' (megajoule, DK, None)", -0.010101224539611599], ["'transport' (ton kilometer, GLO, None)", 0.00040164541094863906], ["'eol SUD' (kilogram, GLO, None)", 0.048965684098354265], ["'surgery use' (unit, DK, None)", 0.004390462130056122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433565686894e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493461945319568], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677976197316], ["'MUD raw materials' (unit, GLO, None)", 0.001492127977962738], ["'mechanical disinfection' (unit, DK, None)", 0.029630370828354784], ["'H200 SU' (unit, GLO, None)", 0.00439301581594786], ["'autoclave' (unit, DK, None)", 0.014539372203261859], ["'transport' (ton kilometer, GLO, None)", 0.0001642897663520613], ["'mixed heating grid' (megajoule, DK, None)", -0.002294292472556051], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.003229035021269726], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638031526], ["'scalpel' (unit, GLO, None)", 0.01028802442383592], ["'surgery use' (unit, DK, None)", 0.004390462130056122]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493461945319568], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677976197316], ["'MUD raw materials' (unit, GLO, None)", 0.001492127977962738], ["'mechanical disinfection' (unit, DK, None)", 0.029630370828354784], ["'H200 SU' (unit, GLO, None)", 0.00439301581594786], ["'autoclave' (unit, DK, None)", 0.012462319031367313], ["'transport' (ton kilometer, GLO, None)", 0.0001642897663520613], ["'mixed heating grid' (megajoule, DK, None)", -0.00041798771708766386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882846206756552], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638031526], ["'scalpel' (unit, GLO, None)", 0.01028802442383592], ["'surgery use' (unit, DK, None)", 0.004390462130056122]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.19952394516403643], ["'SUD manufacturing' (unit, GLO, None)", 102.7754548778297], ["'SUD raw materials' (unit, GLO, None)", 4.338663208958223], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900752997394751], ["'mixed heating grid' (megajoule, DK, None)", -0.7495181682058017], ["'transport' (ton kilometer, GLO, None)", 0.17452026725950523], ["'eol SUD' (kilogram, GLO, None)", 0.9620869888589813], ["'surgery use' (unit, DK, None)", 0.1764627279822105], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912147123218]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785339053278], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805065385590452], ["'MUD raw materials' (unit, GLO, None)", 0.04272095737751461], ["'mechanical disinfection' (unit, DK, None)", 1.195628752563316], ["'H200 SU' (unit, GLO, None)", 0.18702689230809583], ["'autoclave' (unit, DK, None)", 0.591355487088877], ["'transport' (ton kilometer, GLO, None)", 0.07138608620983314], ["'mixed heating grid' (megajoule, DK, None)", -0.1702381611868111], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.11131087459899251], ["'eol MUD' (kilogram, GLO, None)", 0.03449971081533548], ["'scalpel' (unit, GLO, None)", 1.908031088024951], ["'surgery use' (unit, DK, None)", 0.1764627279822105]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785339053278], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805065385590452], ["'MUD raw materials' (unit, GLO, None)", 0.04272095737751461], ["'mechanical disinfection' (unit, DK, None)", 1.195628752563316], ["'H200 SU' (unit, GLO, None)", 0.18702689230809583], ["'autoclave' (unit, DK, None)", 0.5068761317904661], ["'transport' (ton kilometer, GLO, None)", 0.07138608620983314], ["'mixed heating grid' (megajoule, DK, None)", -0.03101499098604504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.020279270806668], ["'eol MUD' (kilogram, GLO, None)", 0.03449971081533548], ["'scalpel' (unit, GLO, None)", 1.908031088024951], ["'surgery use' (unit, DK, None)", 0.1764627279822105]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.040270700631976755], ["'SUD manufacturing' (unit, GLO, None)", 0.2078211747333292], ["'SUD raw materials' (unit, GLO, None)", 0.06836056082183165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629575535071225], ["'mixed heating grid' (megajoule, DK, None)", -0.0420240805648197], ["'transport' (ton kilometer, GLO, None)", 0.0028514051793663716], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125066309416], ["'surgery use' (unit, DK, None)", 0.004169948884327652], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001630159779552044]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829331504022556], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733701957970279], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456027417362], ["'mechanical disinfection' (unit, DK, None)", 0.028876566521638475], ["'H200 SU' (unit, GLO, None)", 0.029939321642561325], ["'autoclave' (unit, DK, None)", 0.014249126762558035], ["'transport' (ton kilometer, GLO, None)", 0.001166343939015061], ["'mixed heating grid' (megajoule, DK, None)", -0.009544935005440652], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010515161692597502], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411677999388], ["'scalpel' (unit, GLO, None)", 0.004622564273706609], ["'surgery use' (unit, DK, None)", 0.004169948884327652]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829331504022556], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733701957970279], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456027417362], ["'mechanical disinfection' (unit, DK, None)", 0.028876566521638475], ["'H200 SU' (unit, GLO, None)", 0.029939321642561325], ["'autoclave' (unit, DK, None)", 0.01221353722504975], ["'transport' (ton kilometer, GLO, None)", 0.001166343939015061], ["'mixed heating grid' (megajoule, DK, None)", -0.0017389524833463866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019157140962938427], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411677999388], ["'scalpel' (unit, GLO, None)", 0.004622564273706609], ["'surgery use' (unit, DK, None)", 0.004169948884327652]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484370080897868e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726230965406], ["'SUD raw materials' (unit, GLO, None)", 4.928300120534907e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612528725185356], ["'mixed heating grid' (megajoule, DK, None)", -4.547242648471373e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690065164085e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930293101804e-06], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989251022216e-07]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230726548113], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074388891692e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708838895536e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829119814081], ["'H200 SU' (unit, GLO, None)", 1.8407043360211596e-06], ["'autoclave' (unit, DK, None)", 5.628092746576836e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451466166828946e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.0328158272655188e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.3189457892857505e-05], ["'eol MUD' (kilogram, GLO, None)", 2.1396645633522092e-07], ["'scalpel' (unit, GLO, None)", 1.32809742643471e-05], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230726548113], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074388891692e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708838895536e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829119814081], ["'H200 SU' (unit, GLO, None)", 1.8407043360211596e-06], ["'autoclave' (unit, DK, None)", 4.824079497065861e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451466166828946e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8816447117126404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650940085722e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645633522092e-07], ["'scalpel' (unit, GLO, None)", 1.32809742643471e-05], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024767606077e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042956859167487e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421560635483897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654932859245676e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.938082536465836e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012384102354e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754195732567e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571731175e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492190242033e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570467673068e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908299841533906e-08], ["'mechanical disinfection' (unit, DK, None)", 4.77028927585696e-05], ["'H200 SU' (unit, GLO, None)", 1.2364749473015247e-06], ["'autoclave' (unit, DK, None)", 3.853277982874982e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255169147664e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.1215873429846246e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.8743167535743915e-06], ["'eol MUD' (kilogram, GLO, None)", 5.7316702488399205e-08], ["'scalpel' (unit, GLO, None)", 2.281517559964449e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492190242033e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570467673068e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908299841533906e-08], ["'mechanical disinfection' (unit, DK, None)", 4.77028927585696e-05], ["'H200 SU' (unit, GLO, None)", 1.2364749473015247e-06], ["'autoclave' (unit, DK, None)", 3.3028096996071287e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255169147664e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0433738881000862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.236599572132504e-07], ["'eol MUD' (kilogram, GLO, None)", 5.7316702488399205e-08], ["'scalpel' (unit, GLO, None)", 2.281517559964449e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0031896874798060283], ["'SUD manufacturing' (unit, GLO, None)", 0.1684747943589419], ["'SUD raw materials' (unit, GLO, None)", 0.0280774756623421], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01456702731506721], ["'mixed heating grid' (megajoule, DK, None)", -0.0066968777645404895], ["'transport' (ton kilometer, GLO, None)", 0.0004686718856624247], ["'eol SUD' (kilogram, GLO, None)", 0.005098283595451853], ["'surgery use' (unit, DK, None)", 0.001498456903453627], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790072140393596e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838321217589241], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792131444300086], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185015901487], ["'mechanical disinfection' (unit, DK, None)", 0.010598425706965772], ["'H200 SU' (unit, GLO, None)", 0.001148207253001874], ["'autoclave' (unit, DK, None)", 0.005367021740187213], ["'transport' (ton kilometer, GLO, None)", 0.00019170639696691557], ["'mixed heating grid' (megajoule, DK, None)", -0.0015210627369544665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0033086110473421536], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219201215626], ["'scalpel' (unit, GLO, None)", 0.0110460449285302], ["'surgery use' (unit, DK, None)", 0.001498456903453627]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838321217589241], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792131444300086], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185015901487], ["'mechanical disinfection' (unit, DK, None)", 0.010598425706965772], ["'H200 SU' (unit, GLO, None)", 0.001148207253001874], ["'autoclave' (unit, DK, None)", 0.004600304348731899], ["'transport' (ton kilometer, GLO, None)", 0.00019170639696691557], ["'mixed heating grid' (megajoule, DK, None)", -0.00027711616917715297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027822498449065], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219201215626], ["'scalpel' (unit, GLO, None)", 0.0110460449285302], ["'surgery use' (unit, DK, None)", 0.001498456903453627]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965575741768], ["'SUD manufacturing' (unit, GLO, None)", 19.78402507622324], ["'SUD raw materials' (unit, GLO, None)", 0.3179891244207774], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998016654916806], ["'mixed heating grid' (megajoule, DK, None)", -0.18547757601221537], ["'transport' (ton kilometer, GLO, None)", 0.007121715755196622], ["'eol SUD' (kilogram, GLO, None)", 0.5721151081595656], ["'surgery use' (unit, DK, None)", 0.04545673720178598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001727367107002578]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174091657785048], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.010173305567389086], ["'MUD raw materials' (unit, GLO, None)", 0.01792910683827502], ["'mechanical disinfection' (unit, DK, None)", 0.3265408656263925], ["'H200 SU' (unit, GLO, None)", 0.03466031867021883], ["'autoclave' (unit, DK, None)", 0.16785238101940614], ["'transport' (ton kilometer, GLO, None)", 0.002913079511312194], ["'mixed heating grid' (megajoule, DK, None)", -0.042127546497360696], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05904933330115485], ["'eol MUD' (kilogram, GLO, None)", 0.009933703796814304], ["'scalpel' (unit, GLO, None)", 0.1293909604392985], ["'surgery use' (unit, DK, None)", 0.04545673720178598]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174091657785048], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.010173305567389086], ["'MUD raw materials' (unit, GLO, None)", 0.01792910683827502], ["'mechanical disinfection' (unit, DK, None)", 0.3265408656263925], ["'H200 SU' (unit, GLO, None)", 0.03466031867021883], ["'autoclave' (unit, DK, None)", 0.14387346944520532], ["'transport' (ton kilometer, GLO, None)", 0.002913079511312194], ["'mixed heating grid' (megajoule, DK, None)", -0.0076750445715050445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757955368523864], ["'eol MUD' (kilogram, GLO, None)", 0.009933703796814304], ["'scalpel' (unit, GLO, None)", 0.1293909604392985], ["'surgery use' (unit, DK, None)", 0.04545673720178598]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756620039246], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765710080897], ["'SUD raw materials' (unit, GLO, None)", 0.009525745953512153], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822438116921], ["'mixed heating grid' (megajoule, DK, None)", -0.012335843411569429], ["'transport' (ton kilometer, GLO, None)", 0.00014709200396484517], ["'eol SUD' (kilogram, GLO, None)", 0.0004189322962871583], ["'surgery use' (unit, DK, None)", 0.004535809503117571], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756595564487e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719681543405], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380119668226553], ["'MUD raw materials' (unit, GLO, None)", 7.749260368739991e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435022870473], ["'H200 SU' (unit, GLO, None)", -0.001238022519561565], ["'autoclave' (unit, DK, None)", 0.01504692633140725], ["'transport' (ton kilometer, GLO, None)", 6.016677971388824e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0028018417540178883], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.012096548303105222], ["'eol MUD' (kilogram, GLO, None)", 1.367157470718583e-05], ["'scalpel' (unit, GLO, None)", 0.001982239167620606], ["'surgery use' (unit, DK, None)", 0.004535809503117571]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719681543405], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380119668226553], ["'MUD raw materials' (unit, GLO, None)", 7.749260368739991e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435022870473], ["'H200 SU' (unit, GLO, None)", -0.001238022519561565], ["'autoclave' (unit, DK, None)", 0.012897365426920505], ["'transport' (ton kilometer, GLO, None)", 6.016677971388824e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0005104560348829812], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022038204240902746], ["'eol MUD' (kilogram, GLO, None)", 1.367157470718583e-05], ["'scalpel' (unit, GLO, None)", 0.001982239167620606], ["'surgery use' (unit, DK, None)", 0.004535809503117571]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01495419993799971], ["'SUD manufacturing' (unit, GLO, None)", 0.0561156117744304], ["'SUD raw materials' (unit, GLO, None)", 0.003024483034777371], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524231731199], ["'mixed heating grid' (megajoule, DK, None)", -0.09561707084811755], ["'transport' (ton kilometer, GLO, None)", 0.00034491098010774765], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345814792849], ["'surgery use' (unit, DK, None)", 0.003318171191551107], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569937780627663e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493694325042], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004774852778790015], ["'MUD raw materials' (unit, GLO, None)", 5.159391355434921e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147094554850144], ["'H200 SU' (unit, GLO, None)", -0.014719080159021172], ["'autoclave' (unit, DK, None)", 0.010759109045114663], ["'transport' (ton kilometer, GLO, None)", 0.0001410830120038605], ["'mixed heating grid' (megajoule, DK, None)", -0.02171751801322989], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008804755164513964], ["'eol MUD' (kilogram, GLO, None)", 4.808304713632667e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739206395425], ["'surgery use' (unit, DK, None)", 0.003318171191551107]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493694325042], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004774852778790015], ["'MUD raw materials' (unit, GLO, None)", 5.159391355434921e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147094554850144], ["'H200 SU' (unit, GLO, None)", -0.014719080159021172], ["'autoclave' (unit, DK, None)", 0.009222093467241142], ["'transport' (ton kilometer, GLO, None)", 0.0001410830120038605], ["'mixed heating grid' (megajoule, DK, None)", -0.003956625357815363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021599268203], ["'eol MUD' (kilogram, GLO, None)", 4.808304713632667e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739206395425], ["'surgery use' (unit, DK, None)", 0.003318171191551107]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794920953041], ["'SUD manufacturing' (unit, GLO, None)", 0.06718159511666533], ["'SUD raw materials' (unit, GLO, None)", 0.008941787598427014], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929846874703038], ["'mixed heating grid' (megajoule, DK, None)", -0.0008644863528490279], ["'transport' (ton kilometer, GLO, None)", 0.00010199917962308576], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470483031997], ["'surgery use' (unit, DK, None)", 0.0001855137862147646], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338635341974807e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847960919481655], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777109018804663], ["'MUD raw materials' (unit, GLO, None)", 0.0001535267349925197], ["'mechanical disinfection' (unit, DK, None)", 0.0014413919788279113], ["'H200 SU' (unit, GLO, None)", 0.00046490697014623224], ["'autoclave' (unit, DK, None)", 0.0008828840752036018], ["'transport' (ton kilometer, GLO, None)", 4.1721929173296514e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0001963509002488942], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0002709627867719875], ["'eol MUD' (kilogram, GLO, None)", 1.4054602991276768e-05], ["'scalpel' (unit, GLO, None)", 0.003450867573325909], ["'surgery use' (unit, DK, None)", 0.0001855137862147646]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847960919481655], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777109018804663], ["'MUD raw materials' (unit, GLO, None)", 0.0001535267349925197], ["'mechanical disinfection' (unit, DK, None)", 0.0014413919788279113], ["'H200 SU' (unit, GLO, None)", 0.00046490697014623224], ["'autoclave' (unit, DK, None)", 0.0007567577787459447], ["'transport' (ton kilometer, GLO, None)", 4.1721929173296514e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.577236360441304e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936559658950256e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054602991276768e-05], ["'scalpel' (unit, GLO, None)", 0.003450867573325909], ["'surgery use' (unit, DK, None)", 0.0001855137862147646]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474516531159e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017151881734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.26572308310134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062940026944098e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.4112135734983012e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998976948726e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611560119745e-08], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955171458108e-10]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578546410771e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0403623721158726e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568105155487e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2915692237946214e-07], ["'H200 SU' (unit, GLO, None)", -1.3479383164661935e-08], ["'autoclave' (unit, DK, None)", 6.735233475821334e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513035703465e-09], ["'mixed heating grid' (megajoule, DK, None)", -3.205291265578156e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -4.5568985064406785e-08], ["'eol MUD' (kilogram, GLO, None)", 2.1287387459111088e-09], ["'scalpel' (unit, GLO, None)", 9.885787867502099e-09], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578546410771e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0403623721158726e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568105155487e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2915692237946214e-07], ["'H200 SU' (unit, GLO, None)", -1.3479383164661935e-08], ["'autoclave' (unit, DK, None)", 5.773057264989717e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513035703465e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.8395884340212884e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302026121304762e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387459111088e-09], ["'scalpel' (unit, GLO, None)", 9.885787867502099e-09], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421277883432e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053973963947272], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388285747852], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504434793501152], ["'mixed heating grid' (megajoule, DK, None)", -0.00021395678447783903], ["'transport' (ton kilometer, GLO, None)", 6.510637517039441e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135808765582737e-05], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944155568174e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367535495990968], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725121966463753e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252761364081e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00013032167613963612], ["'H200 SU' (unit, GLO, None)", 4.493762881624555e-05], ["'autoclave' (unit, DK, None)", 6.70888134682422e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229619953375e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.8596032902232486e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.294394398752482e-05], ["'eol MUD' (kilogram, GLO, None)", 6.186158796540539e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094718839251], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367535495990968], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725121966463753e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252761364081e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00013032167613963612], ["'H200 SU' (unit, GLO, None)", 4.493762881624555e-05], ["'autoclave' (unit, DK, None)", 5.750469725849333e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229619953375e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.853511527103224e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001921770622442e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186158796540539e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094718839251], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001898703728314704], ["'SUD manufacturing' (unit, GLO, None)", 0.003514347484129896], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415078126303], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542832660999431], ["'mixed heating grid' (megajoule, DK, None)", -0.0005317123848007808], ["'transport' (ton kilometer, GLO, None)", 1.4408454788237433e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144093824972e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969026051784707e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059579321840019], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092898497035306e-05], ["'MUD raw materials' (unit, GLO, None)", 5.360473406424085e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023787040768632139], ["'H200 SU' (unit, GLO, None)", 6.281548908238727e-05], ["'autoclave' (unit, DK, None)", 0.00011899001343028971], ["'transport' (ton kilometer, GLO, None)", 5.893660443082892e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.0001207679046465553], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.046841011235677e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506247403857e-06], ["'scalpel' (unit, GLO, None)", 6.410695028769174e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059579321840019], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092898497035306e-05], ["'MUD raw materials' (unit, GLO, None)", 5.360473406424085e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023787040768632139], ["'H200 SU' (unit, GLO, None)", 6.281548908238727e-05], ["'autoclave' (unit, DK, None)", 0.00010199144008310552], ["'transport' (ton kilometer, GLO, None)", 5.893660443082892e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.20022082469876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660208950197887e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506247403857e-06], ["'scalpel' (unit, GLO, None)", 6.410695028769174e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078814972877], ["'SUD manufacturing' (unit, GLO, None)", 0.003606847974303233], ["'SUD raw materials' (unit, GLO, None)", 0.000435356890188297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036227975952596373], ["'mixed heating grid' (megajoule, DK, None)", -0.0005505275134253045], ["'transport' (ton kilometer, GLO, None)", 1.6300400396661054e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421582064019e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880327110964e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162492680174823], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372462564242879e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499651938197167e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386396445205073], ["'H200 SU' (unit, GLO, None)", 6.852235567145167e-05], ["'autoclave' (unit, DK, None)", 0.00012201923105121151], ["'transport' (ton kilometer, GLO, None)", 6.6675453014324205e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00012504138731235875], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.228465483525677e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056853048946e-06], ["'scalpel' (unit, GLO, None)", 6.661414373127373e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162492680174823], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372462564242879e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499651938197167e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386396445205073], ["'H200 SU' (unit, GLO, None)", 6.852235567145167e-05], ["'autoclave' (unit, DK, None)", 0.00010458791232960991], ["'transport' (ton kilometer, GLO, None)", 6.6675453014324205e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.278077649182119e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991103112332196e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056853048946e-06], ["'scalpel' (unit, GLO, None)", 6.661414373127373e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00135587586841775], ["'SUD manufacturing' (unit, GLO, None)", 0.0108567137648576], ["'SUD raw materials' (unit, GLO, None)", 0.004321420989160224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790868214642398], ["'mixed heating grid' (megajoule, DK, None)", -0.0009914752549239558], ["'transport' (ton kilometer, GLO, None)", 1.4729126450706737e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943389199024], ["'surgery use' (unit, DK, None)", 0.00028841189473513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961769536833e-06]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111204440431], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002473631252815651], ["'MUD raw materials' (unit, GLO, None)", 2.571622886045624e-05], ["'mechanical disinfection' (unit, DK, None)", 0.002000101309655717], ["'H200 SU' (unit, GLO, None)", 0.00027431531880630977], ["'autoclave' (unit, DK, None)", 0.001041369677771263], ["'transport' (ton kilometer, GLO, None)", 6.0248285606978244e-06], ["'mixed heating grid' (megajoule, DK, None)", -0.00022519390645929442], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0007220664553211148], ["'eol MUD' (kilogram, GLO, None)", 1.2165982309575449e-05], ["'scalpel' (unit, GLO, None)", 0.001017723695010102], ["'surgery use' (unit, DK, None)", 0.00028841189473513]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111204440431], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002473631252815651], ["'MUD raw materials' (unit, GLO, None)", 2.571622886045624e-05], ["'mechanical disinfection' (unit, DK, None)", 0.002000101309655717], ["'H200 SU' (unit, GLO, None)", 0.00027431531880630977], ["'autoclave' (unit, DK, None)", 0.0008926025809467971], ["'transport' (ton kilometer, GLO, None)", 6.0248285606978244e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.102715237439013e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000131550320133773], ["'eol MUD' (kilogram, GLO, None)", 1.2165982309575449e-05], ["'scalpel' (unit, GLO, None)", 0.001017723695010102], ["'surgery use' (unit, DK, None)", 0.00028841189473513]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.285046956474547e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739542769673668e-09], ["'SUD raw materials' (unit, GLO, None)", 1.130508664102505e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857765018491497e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4815589637473403e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920539583983e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833319921738e-09], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307432020232e-12]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238390968774466e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.92959923163088e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065957987357341e-11], ["'mechanical disinfection' (unit, DK, None)", 7.260637362257631e-10], ["'H200 SU' (unit, GLO, None)", 1.4508217483548533e-10], ["'autoclave' (unit, DK, None)", 3.6183315261364114e-10], ["'transport' (ton kilometer, GLO, None)", 1.463110056007308e-11], ["'mixed heating grid' (megajoule, DK, None)", -3.365066843969163e-10], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.466125758717327e-10], ["'eol MUD' (kilogram, GLO, None)", 4.2344931520615686e-11], ["'scalpel' (unit, GLO, None)", 2.839170203322277e-10], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238390968774466e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.92959923163088e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065957987357341e-11], ["'mechanical disinfection' (unit, DK, None)", 7.260637362257631e-10], ["'H200 SU' (unit, GLO, None)", 1.4508217483548533e-10], ["'autoclave' (unit, DK, None)", 3.1014270224026396e-10], ["'transport' (ton kilometer, GLO, None)", 1.463110056007308e-11], ["'mixed heating grid' (megajoule, DK, None)", -6.130676994250118e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.492933173375759e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931520615686e-11], ["'scalpel' (unit, GLO, None)", 2.839170203322277e-10], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691845048519947e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.977744436204676e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527598563428e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989121214708747e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.3802030895128524e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589181820996e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078087538045e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753746733194e-09]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332314081913749e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214082312517e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001775744364e-08], ["'mechanical disinfection' (unit, DK, None)", 3.005424017823394e-07], ["'H200 SU' (unit, GLO, None)", 1.2019632866780766e-07], ["'autoclave' (unit, DK, None)", 1.5246357407201924e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151146530252e-09], ["'mixed heating grid' (megajoule, DK, None)", -7.677459770910348e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -8.401344518375316e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888510676228e-08], ["'scalpel' (unit, GLO, None)", 2.59100844273357e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332314081913749e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214082312517e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001775744364e-08], ["'mechanical disinfection' (unit, DK, None)", 3.005424017823394e-07], ["'H200 SU' (unit, GLO, None)", 1.2019632866780766e-07], ["'autoclave' (unit, DK, None)", 1.3068306349030227e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151146530252e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3987248448320031e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5306064321391182e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888510676228e-08], ["'scalpel' (unit, GLO, None)", 2.59100844273357e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08]]</t>
   </si>
   <si>
     <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350078653827], ["'SUD manufacturing' (unit, GLO, None)", 0.06571186791850801], ["'SUD raw materials' (unit, GLO, None)", 0.02624265116855249], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643955448402395], ["'mixed heating grid' (megajoule, DK, None)", -0.012837630361736454], ["'transport' (ton kilometer, GLO, None)", 0.0012316580519658904], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153401659106], ["'surgery use' (unit, DK, None)", 0.000824189830257957], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475948211392e-05]]</t>
   </si>
   <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967865449574197], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003652386386965933], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366361264842], ["'mechanical disinfection' (unit, DK, None)", 0.005860581428324106], ["'H200 SU' (unit, GLO, None)", 0.012204217943285025], ["'autoclave' (unit, DK, None)", 0.0029538064264566285], ["'transport' (ton kilometer, GLO, None)", 0.0005037996403474077], ["'mixed heating grid' (megajoule, DK, None)", -0.00291581269071774], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0019633028668612483], ["'eol MUD' (kilogram, GLO, None)", 4.0205328281252854e-05], ["'scalpel' (unit, GLO, None)", 0.001988557764459031], ["'surgery use' (unit, DK, None)", 0.000824189830257957]]</t>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967865449574197], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003652386386965933], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366361264842], ["'mechanical disinfection' (unit, DK, None)", 0.005860581428324106], ["'H200 SU' (unit, GLO, None)", 0.012204217943285025], ["'autoclave' (unit, DK, None)", 0.002531834079819968], ["'transport' (ton kilometer, GLO, None)", 0.0005037996403474077], ["'mixed heating grid' (megajoule, DK, None)", -0.0005312199314721725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00035768608104124323], ["'eol MUD' (kilogram, GLO, None)", 4.0205328281252854e-05], ["'scalpel' (unit, GLO, None)", 0.001988557764459031], ["'surgery use' (unit, DK, None)", 0.000824189830257957]]</t>
   </si>
 </sst>
 </file>
@@ -560,79 +566,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
@@ -695,9 +701,12 @@
       <c r="U2" t="s">
         <v>61</v>
       </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -759,6 +768,9 @@
       </c>
       <c r="U3" t="s">
         <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2_apos/data_case2_apos_recipe.xlsx
+++ b/results/case2_apos/data_case2_apos_recipe.xlsx
@@ -85,130 +85,130 @@
     <t>MUD</t>
   </si>
   <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519365920087], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345123817255], ["'SUD raw materials' (unit, GLO, None)", 0.002301881209050565], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0004261825181985166], ["'mixed heating grid' (megajoule, DK, None)", -0.0005016264266261211], ["'transport' (ton kilometer, GLO, None)", 1.2469163709814673e-05], ["'eol SUD' (kilogram, GLO, None)", 5.3280039811387766e-05], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896319973864852e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838743237552608], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461118693884285e-05], ["'MUD raw materials' (unit, GLO, None)", 2.079559274514854e-05], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089228537572], ["'H200 SU' (unit, GLO, None)", 9.705158285606127e-05], ["'autoclave' (unit, DK, None)", 0.00016508794432892556], ["'transport' (ton kilometer, GLO, None)", 5.100409307933102e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.0757254140234862e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635393385893735e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326346136925188e-06], ["'scalpel' (unit, GLO, None)", 0.0008694889994236557], ["'surgery use' (unit, DK, None)", 5.367420350745607e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332787133523176], ["'SUD manufacturing' (unit, GLO, None)", 0.7599392831299568], ["'SUD raw materials' (unit, GLO, None)", 0.1652473764922311], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.1758314145278802], ["'mixed heating grid' (megajoule, DK, None)", -0.14672767633167821], ["'transport' (ton kilometer, GLO, None)", 0.009047771163788833], ["'eol SUD' (kilogram, GLO, None)", 0.4215931851306179], ["'surgery use' (unit, DK, None)", 0.01623028470842695], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838645184927]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127277472248], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432756999087625], ["'MUD raw materials' (unit, GLO, None)", 0.000994739537216495], ["'mechanical disinfection' (unit, DK, None)", 0.1121100967278825], ["'H200 SU' (unit, GLO, None)", 0.0857768559144634], ["'autoclave' (unit, DK, None)", 0.047698049130588525], ["'transport' (ton kilometer, GLO, None)", 0.003700916704102135], ["'mixed heating grid' (megajoule, DK, None)", -0.006071577383806382], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007275887753220638], ["'eol MUD' (kilogram, GLO, None)", 0.014436586095175008], ["'scalpel' (unit, GLO, None)", 0.01744137793233663], ["'surgery use' (unit, DK, None)", 0.01623028470842695]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0021190771570295122], ["'SUD manufacturing' (unit, GLO, None)", 1.34539063149911], ["'SUD raw materials' (unit, GLO, None)", 0.01684144098305416], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01090253365368311], ["'mixed heating grid' (megajoule, DK, None)", -0.007721224126291775], ["'transport' (ton kilometer, GLO, None)", 0.000226067677241755], ["'eol SUD' (kilogram, GLO, None)", 0.03563855013414572], ["'surgery use' (unit, DK, None)", 0.003484677133467028], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907261517659e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348092831099516], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004302866298631196], ["'MUD raw materials' (unit, GLO, None)", 0.000957582374855469], ["'mechanical disinfection' (unit, DK, None)", 0.02349312256472459], ["'H200 SU' (unit, GLO, None)", 0.003053382324642625], ["'autoclave' (unit, DK, None)", 0.00987255868347543], ["'transport' (ton kilometer, GLO, None)", 9.247113215131576e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.00031950352484640305], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00045114583934221126], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189347653251], ["'scalpel' (unit, GLO, None)", 0.007534488146906168], ["'surgery use' (unit, DK, None)", 0.003484677133467028]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220896430468352], ["'SUD manufacturing' (unit, GLO, None)", 1.727145787551799], ["'SUD raw materials' (unit, GLO, None)", 0.02314080446120313], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216673003594804], ["'mixed heating grid' (megajoule, DK, None)", -0.010101224539611599], ["'transport' (ton kilometer, GLO, None)", 0.00040164541094863906], ["'eol SUD' (kilogram, GLO, None)", 0.048965684098354265], ["'surgery use' (unit, DK, None)", 0.004390462130056122], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433565686894e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493461945319568], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0005761677976197316], ["'MUD raw materials' (unit, GLO, None)", 0.001492127977962738], ["'mechanical disinfection' (unit, DK, None)", 0.029630370828354784], ["'H200 SU' (unit, GLO, None)", 0.00439301581594786], ["'autoclave' (unit, DK, None)", 0.012462319031367313], ["'transport' (ton kilometer, GLO, None)", 0.0001642897663520613], ["'mixed heating grid' (megajoule, DK, None)", -0.00041798771708766386], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882846206756552], ["'eol MUD' (kilogram, GLO, None)", 0.001037055638031526], ["'scalpel' (unit, GLO, None)", 0.01028802442383592], ["'surgery use' (unit, DK, None)", 0.004390462130056122]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.19952394516403643], ["'SUD manufacturing' (unit, GLO, None)", 102.7754548778297], ["'SUD raw materials' (unit, GLO, None)", 4.338663208958223], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900752997394751], ["'mixed heating grid' (megajoule, DK, None)", -0.7495181682058017], ["'transport' (ton kilometer, GLO, None)", 0.17452026725950523], ["'eol SUD' (kilogram, GLO, None)", 0.9620869888589813], ["'surgery use' (unit, DK, None)", 0.1764627279822105], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.002228912147123218]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785339053278], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805065385590452], ["'MUD raw materials' (unit, GLO, None)", 0.04272095737751461], ["'mechanical disinfection' (unit, DK, None)", 1.195628752563316], ["'H200 SU' (unit, GLO, None)", 0.18702689230809583], ["'autoclave' (unit, DK, None)", 0.5068761317904661], ["'transport' (ton kilometer, GLO, None)", 0.07138608620983314], ["'mixed heating grid' (megajoule, DK, None)", -0.03101499098604504], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.020279270806668], ["'eol MUD' (kilogram, GLO, None)", 0.03449971081533548], ["'scalpel' (unit, GLO, None)", 1.908031088024951], ["'surgery use' (unit, DK, None)", 0.1764627279822105]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.040270700631976755], ["'SUD manufacturing' (unit, GLO, None)", 0.2078211747333292], ["'SUD raw materials' (unit, GLO, None)", 0.06836056082183165], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.04629575535071225], ["'mixed heating grid' (megajoule, DK, None)", -0.0420240805648197], ["'transport' (ton kilometer, GLO, None)", 0.0028514051793663716], ["'eol SUD' (kilogram, GLO, None)", 0.0030884125066309416], ["'surgery use' (unit, DK, None)", 0.004169948884327652], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0001630159779552044]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829331504022556], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.009733701957970279], ["'MUD raw materials' (unit, GLO, None)", 0.0002629456027417362], ["'mechanical disinfection' (unit, DK, None)", 0.028876566521638475], ["'H200 SU' (unit, GLO, None)", 0.029939321642561325], ["'autoclave' (unit, DK, None)", 0.01221353722504975], ["'transport' (ton kilometer, GLO, None)", 0.001166343939015061], ["'mixed heating grid' (megajoule, DK, None)", -0.0017389524833463866], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019157140962938427], ["'eol MUD' (kilogram, GLO, None)", 0.00010128411677999388], ["'scalpel' (unit, GLO, None)", 0.004622564273706609], ["'surgery use' (unit, DK, None)", 0.004169948884327652]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484370080897868e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726230965406], ["'SUD raw materials' (unit, GLO, None)", 4.928300120534907e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612528725185356], ["'mixed heating grid' (megajoule, DK, None)", -4.547242648471373e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690065164085e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930293101804e-06], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.300989251022216e-07]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230726548113], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074388891692e-06], ["'MUD raw materials' (unit, GLO, None)", 1.478708838895536e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829119814081], ["'H200 SU' (unit, GLO, None)", 1.8407043360211596e-06], ["'autoclave' (unit, DK, None)", 4.824079497065861e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451466166828946e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8816447117126404e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650940085722e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645633522092e-07], ["'scalpel' (unit, GLO, None)", 1.32809742643471e-05], ["'surgery use' (unit, DK, None)", 1.420379340384306e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024767606077e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042956859167487e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421560635483897e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654932859245676e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.938082536465836e-06], ["'transport' (ton kilometer, GLO, None)", 2.546012384102354e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754195732567e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571731175e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492190242033e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868570467673068e-07], ["'MUD raw materials' (unit, GLO, None)", 8.908299841533906e-08], ["'mechanical disinfection' (unit, DK, None)", 4.77028927585696e-05], ["'H200 SU' (unit, GLO, None)", 1.2364749473015247e-06], ["'autoclave' (unit, DK, None)", 3.3028096996071287e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255169147664e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0433738881000862e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.236599572132504e-07], ["'eol MUD' (kilogram, GLO, None)", 5.7316702488399205e-08], ["'scalpel' (unit, GLO, None)", 2.281517559964449e-06], ["'surgery use' (unit, DK, None)", 1.423529272957082e-06]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0031896874798060283], ["'SUD manufacturing' (unit, GLO, None)", 0.1684747943589419], ["'SUD raw materials' (unit, GLO, None)", 0.0280774756623421], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.01456702731506721], ["'mixed heating grid' (megajoule, DK, None)", -0.0066968777645404895], ["'transport' (ton kilometer, GLO, None)", 0.0004686718856624247], ["'eol SUD' (kilogram, GLO, None)", 0.005098283595451853], ["'surgery use' (unit, DK, None)", 0.001498456903453627], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790072140393596e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838321217589241], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792131444300086], ["'MUD raw materials' (unit, GLO, None)", 0.0002723185015901487], ["'mechanical disinfection' (unit, DK, None)", 0.010598425706965772], ["'H200 SU' (unit, GLO, None)", 0.001148207253001874], ["'autoclave' (unit, DK, None)", 0.004600304348731899], ["'transport' (ton kilometer, GLO, None)", 0.00019170639696691557], ["'mixed heating grid' (megajoule, DK, None)", -0.00027711616917715297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027822498449065], ["'eol MUD' (kilogram, GLO, None)", 0.00014187219201215626], ["'scalpel' (unit, GLO, None)", 0.0110460449285302], ["'surgery use' (unit, DK, None)", 0.001498456903453627]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965575741768], ["'SUD manufacturing' (unit, GLO, None)", 19.78402507622324], ["'SUD raw materials' (unit, GLO, None)", 0.3179891244207774], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998016654916806], ["'mixed heating grid' (megajoule, DK, None)", -0.18547757601221537], ["'transport' (ton kilometer, GLO, None)", 0.007121715755196622], ["'eol SUD' (kilogram, GLO, None)", 0.5721151081595656], ["'surgery use' (unit, DK, None)", 0.04545673720178598], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001727367107002578]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174091657785048], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.010173305567389086], ["'MUD raw materials' (unit, GLO, None)", 0.01792910683827502], ["'mechanical disinfection' (unit, DK, None)", 0.3265408656263925], ["'H200 SU' (unit, GLO, None)", 0.03466031867021883], ["'autoclave' (unit, DK, None)", 0.14387346944520532], ["'transport' (ton kilometer, GLO, None)", 0.002913079511312194], ["'mixed heating grid' (megajoule, DK, None)", -0.0076750445715050445], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757955368523864], ["'eol MUD' (kilogram, GLO, None)", 0.009933703796814304], ["'scalpel' (unit, GLO, None)", 0.1293909604392985], ["'surgery use' (unit, DK, None)", 0.04545673720178598]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756620039246], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765710080897], ["'SUD raw materials' (unit, GLO, None)", 0.009525745953512153], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.05325822438116921], ["'mixed heating grid' (megajoule, DK, None)", -0.012335843411569429], ["'transport' (ton kilometer, GLO, None)", 0.00014709200396484517], ["'eol SUD' (kilogram, GLO, None)", 0.0004189322962871583], ["'surgery use' (unit, DK, None)", 0.004535809503117571], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756595564487e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05135719681543405], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380119668226553], ["'MUD raw materials' (unit, GLO, None)", 7.749260368739991e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435022870473], ["'H200 SU' (unit, GLO, None)", -0.001238022519561565], ["'autoclave' (unit, DK, None)", 0.012897365426920505], ["'transport' (ton kilometer, GLO, None)", 6.016677971388824e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0005104560348829812], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022038204240902746], ["'eol MUD' (kilogram, GLO, None)", 1.367157470718583e-05], ["'scalpel' (unit, GLO, None)", 0.001982239167620606], ["'surgery use' (unit, DK, None)", 0.004535809503117571]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01495419993799971], ["'SUD manufacturing' (unit, GLO, None)", 0.0561156117744304], ["'SUD raw materials' (unit, GLO, None)", 0.003024483034777371], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876524231731199], ["'mixed heating grid' (megajoule, DK, None)", -0.09561707084811755], ["'transport' (ton kilometer, GLO, None)", 0.00034491098010774765], ["'eol SUD' (kilogram, GLO, None)", 0.00018041345814792849], ["'surgery use' (unit, DK, None)", 0.003318171191551107], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569937780627663e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664493694325042], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0004774852778790015], ["'MUD raw materials' (unit, GLO, None)", 5.159391355434921e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147094554850144], ["'H200 SU' (unit, GLO, None)", -0.014719080159021172], ["'autoclave' (unit, DK, None)", 0.009222093467241142], ["'transport' (ton kilometer, GLO, None)", 0.0001410830120038605], ["'mixed heating grid' (megajoule, DK, None)", -0.003956625357815363], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041021599268203], ["'eol MUD' (kilogram, GLO, None)", 4.808304713632667e-06], ["'scalpel' (unit, GLO, None)", 0.0005811739206395425], ["'surgery use' (unit, DK, None)", 0.003318171191551107]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005791794920953041], ["'SUD manufacturing' (unit, GLO, None)", 0.06718159511666533], ["'SUD raw materials' (unit, GLO, None)", 0.008941787598427014], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929846874703038], ["'mixed heating grid' (megajoule, DK, None)", -0.0008644863528490279], ["'transport' (ton kilometer, GLO, None)", 0.00010199917962308576], ["'eol SUD' (kilogram, GLO, None)", 0.00043148470483031997], ["'surgery use' (unit, DK, None)", 0.0001855137862147646], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338635341974807e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847960919481655], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777109018804663], ["'MUD raw materials' (unit, GLO, None)", 0.0001535267349925197], ["'mechanical disinfection' (unit, DK, None)", 0.0014413919788279113], ["'H200 SU' (unit, GLO, None)", 0.00046490697014623224], ["'autoclave' (unit, DK, None)", 0.0007567577787459447], ["'transport' (ton kilometer, GLO, None)", 4.1721929173296514e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.577236360441304e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936559658950256e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054602991276768e-05], ["'scalpel' (unit, GLO, None)", 0.003450867573325909], ["'surgery use' (unit, DK, None)", 0.0001855137862147646]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.270474516531159e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017151881734e-07], ["'SUD raw materials' (unit, GLO, None)", 8.26572308310134e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062940026944098e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.4112135734983012e-07], ["'transport' (ton kilometer, GLO, None)", 4.130998976948726e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611560119745e-08], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955171458108e-10]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578546410771e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0403623721158726e-09], ["'MUD raw materials' (unit, GLO, None)", 2.637568105155487e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2915692237946214e-07], ["'H200 SU' (unit, GLO, None)", -1.3479383164661935e-08], ["'autoclave' (unit, DK, None)", 5.773057264989717e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513035703465e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.8395884340212884e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302026121304762e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387459111088e-09], ["'scalpel' (unit, GLO, None)", 9.885787867502099e-09], ["'surgery use' (unit, DK, None)", 1.752618648796339e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911421277883432e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053973963947272], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388285747852], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014504434793501152], ["'mixed heating grid' (megajoule, DK, None)", -0.00021395678447783903], ["'transport' (ton kilometer, GLO, None)", 6.510637517039441e-06], ["'eol SUD' (kilogram, GLO, None)", 2.0135808765582737e-05], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.487944155568174e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0002367535495990968], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725121966463753e-05], ["'MUD raw materials' (unit, GLO, None)", 6.990252761364081e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00013032167613963612], ["'H200 SU' (unit, GLO, None)", 4.493762881624555e-05], ["'autoclave' (unit, DK, None)", 5.750469725849333e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631229619953375e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.853511527103224e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.001921770622442e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186158796540539e-07], ["'scalpel' (unit, GLO, None)", 0.0002778094718839251], ["'surgery use' (unit, DK, None)", 1.849325537714182e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0001898703728314704], ["'SUD manufacturing' (unit, GLO, None)", 0.003514347484129896], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415078126303], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542832660999431], ["'mixed heating grid' (megajoule, DK, None)", -0.0005317123848007808], ["'transport' (ton kilometer, GLO, None)", 1.4408454788237433e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144093824972e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969026051784707e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059579321840019], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.0092898497035306e-05], ["'MUD raw materials' (unit, GLO, None)", 5.360473406424085e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023787040768632139], ["'H200 SU' (unit, GLO, None)", 6.281548908238727e-05], ["'autoclave' (unit, DK, None)", 0.00010199144008310552], ["'transport' (ton kilometer, GLO, None)", 5.893660443082892e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.20022082469876e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660208950197887e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9093506247403857e-06], ["'scalpel' (unit, GLO, None)", 6.410695028769174e-05], ["'surgery use' (unit, DK, None)", 3.418728760765289e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532078814972877], ["'SUD manufacturing' (unit, GLO, None)", 0.003606847974303233], ["'SUD raw materials' (unit, GLO, None)", 0.000435356890188297], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00036227975952596373], ["'mixed heating grid' (megajoule, DK, None)", -0.0005505275134253045], ["'transport' (ton kilometer, GLO, None)", 1.6300400396661054e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421582064019e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880327110964e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162492680174823], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.372462564242879e-05], ["'MUD raw materials' (unit, GLO, None)", 5.499651938197167e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386396445205073], ["'H200 SU' (unit, GLO, None)", 6.852235567145167e-05], ["'autoclave' (unit, DK, None)", 0.00010458791232960991], ["'transport' (ton kilometer, GLO, None)", 6.6675453014324205e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.278077649182119e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991103112332196e-05], ["'eol MUD' (kilogram, GLO, None)", 2.9576056853048946e-06], ["'scalpel' (unit, GLO, None)", 6.661414373127373e-05], ["'surgery use' (unit, DK, None)", 3.503057661905493e-05]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00135587586841775], ["'SUD manufacturing' (unit, GLO, None)", 0.0108567137648576], ["'SUD raw materials' (unit, GLO, None)", 0.004321420989160224], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790868214642398], ["'mixed heating grid' (megajoule, DK, None)", -0.0009914752549239558], ["'transport' (ton kilometer, GLO, None)", 1.4729126450706737e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943389199024], ["'surgery use' (unit, DK, None)", 0.00028841189473513], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961769536833e-06]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111204440431], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0002473631252815651], ["'MUD raw materials' (unit, GLO, None)", 2.571622886045624e-05], ["'mechanical disinfection' (unit, DK, None)", 0.002000101309655717], ["'H200 SU' (unit, GLO, None)", 0.00027431531880630977], ["'autoclave' (unit, DK, None)", 0.0008926025809467971], ["'transport' (ton kilometer, GLO, None)", 6.0248285606978244e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.102715237439013e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.000131550320133773], ["'eol MUD' (kilogram, GLO, None)", 1.2165982309575449e-05], ["'scalpel' (unit, GLO, None)", 0.001017723695010102], ["'surgery use' (unit, DK, None)", 0.00028841189473513]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.285046956474547e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739542769673668e-09], ["'SUD raw materials' (unit, GLO, None)", 1.130508664102505e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.0857765018491497e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4815589637473403e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920539583983e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833319921738e-09], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.348307432020232e-12]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.238390968774466e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.92959923163088e-11], ["'MUD raw materials' (unit, GLO, None)", 1.065957987357341e-11], ["'mechanical disinfection' (unit, DK, None)", 7.260637362257631e-10], ["'H200 SU' (unit, GLO, None)", 1.4508217483548533e-10], ["'autoclave' (unit, DK, None)", 3.1014270224026396e-10], ["'transport' (ton kilometer, GLO, None)", 1.463110056007308e-11], ["'mixed heating grid' (megajoule, DK, None)", -6.130676994250118e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.492933173375759e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344931520615686e-11], ["'scalpel' (unit, GLO, None)", 2.839170203322277e-10], ["'surgery use' (unit, DK, None)", 1.051772042922877e-10]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691845048519947e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.977744436204676e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527598563428e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989121214708747e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.3802030895128524e-07], ["'transport' (ton kilometer, GLO, None)", 1.5717589181820996e-08], ["'eol SUD' (kilogram, GLO, None)", 5.524078087538045e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753746733194e-09]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332314081913749e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.344214082312517e-08], ["'MUD raw materials' (unit, GLO, None)", 1.037001775744364e-08], ["'mechanical disinfection' (unit, DK, None)", 3.005424017823394e-07], ["'H200 SU' (unit, GLO, None)", 1.2019632866780766e-07], ["'autoclave' (unit, DK, None)", 1.3068306349030227e-07], ["'transport' (ton kilometer, GLO, None)", 6.429151146530252e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3987248448320031e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5306064321391182e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888510676228e-08], ["'scalpel' (unit, GLO, None)", 2.59100844273357e-07], ["'surgery use' (unit, DK, None)", 4.273809664050741e-08]]</t>
-  </si>
-  <si>
-    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.016226350078653827], ["'SUD manufacturing' (unit, GLO, None)", 0.06571186791850801], ["'SUD raw materials' (unit, GLO, None)", 0.02624265116855249], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643955448402395], ["'mixed heating grid' (megajoule, DK, None)", -0.012837630361736454], ["'transport' (ton kilometer, GLO, None)", 0.0012316580519658904], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153401659106], ["'surgery use' (unit, DK, None)", 0.000824189830257957], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475948211392e-05]]</t>
-  </si>
-  <si>
-    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.009967865449574197], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003652386386965933], ["'MUD raw materials' (unit, GLO, None)", 0.0001119366361264842], ["'mechanical disinfection' (unit, DK, None)", 0.005860581428324106], ["'H200 SU' (unit, GLO, None)", 0.012204217943285025], ["'autoclave' (unit, DK, None)", 0.002531834079819968], ["'transport' (ton kilometer, GLO, None)", 0.0005037996403474077], ["'mixed heating grid' (megajoule, DK, None)", -0.0005312199314721725], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00035768608104124323], ["'eol MUD' (kilogram, GLO, None)", 4.0205328281252854e-05], ["'scalpel' (unit, GLO, None)", 0.001988557764459031], ["'surgery use' (unit, DK, None)", 0.000824189830257957]]</t>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0002181519177739864], ["'SUD manufacturing' (unit, GLO, None)", 0.01449345142594517], ["'SUD raw materials' (unit, GLO, None)", 0.002301881235981028], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00042618236347823844], ["'mixed heating grid' (megajoule, DK, None)", -0.0005016268222566936], ["'transport' (ton kilometer, GLO, None)", 1.246916401375404e-05], ["'eol SUD' (kilogram, GLO, None)", 5.328004400277739e-05], ["'surgery use' (unit, DK, None)", 5.367420018288141e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631988860443e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0006838743673976745], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.6461124751544166e-05], ["'MUD raw materials' (unit, GLO, None)", 5.044343652135735e-06], ["'mechanical disinfection' (unit, DK, None)", 0.0003752089221806675], ["'H200 SU' (unit, GLO, None)", 9.705153581581007e-05], ["'autoclave' (unit, DK, None)", 0.00016508796658354434], ["'transport' (ton kilometer, GLO, None)", 5.100409432257011e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.075727051139058e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.7635386983582863e-05], ["'eol MUD' (kilogram, GLO, None)", 1.6326345636846876e-06], ["'scalpel' (unit, GLO, None)", 6.249489417244106e-05], ["'surgery use' (unit, DK, None)", 5.367420018288141e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.07332786373051166], ["'SUD manufacturing' (unit, GLO, None)", 0.7599393530027657], ["'SUD raw materials' (unit, GLO, None)", 0.1652473867310799], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.17583135851142886], ["'mixed heating grid' (megajoule, DK, None)", -0.14672774246976827], ["'transport' (ton kilometer, GLO, None)", 0.009047771278765196], ["'eol SUD' (kilogram, GLO, None)", 0.42159318536197304], ["'surgery use' (unit, DK, None)", 0.01623028363522869], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568838660430945]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.1877127444107506], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.016432759190754397], ["'MUD raw materials' (unit, GLO, None)", 0.0009051563588489059], ["'mechanical disinfection' (unit, DK, None)", 0.11211009529338962], ["'H200 SU' (unit, GLO, None)", 0.08577685740259305], ["'autoclave' (unit, DK, None)", 0.04769805834108638], ["'transport' (ton kilometer, GLO, None)", 0.003700916751132275], ["'mixed heating grid' (megajoule, DK, None)", -0.006071580120594301], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.007275885435265036], ["'eol MUD' (kilogram, GLO, None)", 0.014436586074722138], ["'scalpel' (unit, GLO, None)", 0.01285170300504634], ["'surgery use' (unit, DK, None)", 0.01623028363522869]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.002119076970477245], ["'SUD manufacturing' (unit, GLO, None)", 1.345390633703747], ["'SUD raw materials' (unit, GLO, None)", 0.01684144142937924], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.010902531247821945], ["'mixed heating grid' (megajoule, DK, None)", -0.0077212403259937865], ["'transport' (ton kilometer, GLO, None)", 0.0002260676816920427], ["'eol SUD' (kilogram, GLO, None)", 0.03563855038920934], ["'surgery use' (unit, DK, None)", 0.003484677044627102], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907324352971e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04348092871659614], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00043028671963614505], ["'MUD raw materials' (unit, GLO, None)", 0.0008650231327965365], ["'mechanical disinfection' (unit, DK, None)", 0.023493122711485476], ["'H200 SU' (unit, GLO, None)", 0.003053381137865655], ["'autoclave' (unit, DK, None)", 0.009872558782659859], ["'transport' (ton kilometer, GLO, None)", 9.247113397166951e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0003195041951885418], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0004511457397878977], ["'eol MUD' (kilogram, GLO, None)", 0.0007276189333658295], ["'scalpel' (unit, GLO, None)", 0.002792339594392076], ["'surgery use' (unit, DK, None)", 0.003484677044627102]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0028220893768042747], ["'SUD manufacturing' (unit, GLO, None)", 1.727145790640689], ["'SUD raw materials' (unit, GLO, None)", 0.02314080506836665], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014216669718321652], ["'mixed heating grid' (megajoule, DK, None)", -0.010101245349720013], ["'transport' (ton kilometer, GLO, None)", 0.0004016454170871615], ["'eol SUD' (kilogram, GLO, None)", 0.048965684428646475], ["'surgery use' (unit, DK, None)", 0.004390462012388322], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433647587713e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.05493462003866682], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.000576167920865771], ["'MUD raw materials' (unit, GLO, None)", 0.001363932246730207], ["'mechanical disinfection' (unit, DK, None)", 0.029630371015790274], ["'H200 SU' (unit, GLO, None)", 0.00439301429587047], ["'autoclave' (unit, DK, None)", 0.01246231919400917], ["'transport' (ton kilometer, GLO, None)", 0.0001642897688629736], ["'mixed heating grid' (megajoule, DK, None)", -0.00041798857820798393], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0005882844847313545], ["'eol MUD' (kilogram, GLO, None)", 0.0010370556362121666], ["'scalpel' (unit, GLO, None)", 0.003720088172757824], ["'surgery use' (unit, DK, None)", 0.004390462012388322]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.19952391580970358], ["'SUD manufacturing' (unit, GLO, None)", 102.7754551900828], ["'SUD raw materials' (unit, GLO, None)", 4.338663262557993], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.4900749877436775], ["'mixed heating grid' (megajoule, DK, None)", -0.7495191435577303], ["'transport' (ton kilometer, GLO, None)", 0.1745202678430638], ["'eol SUD' (kilogram, GLO, None)", 0.962087011569371], ["'surgery use' (unit, DK, None)", 0.1764627183544281], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289122159866036]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.391785408249417], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.03805066581358109], ["'MUD raw materials' (unit, GLO, None)", 0.01411658400780716], ["'mechanical disinfection' (unit, DK, None)", 1.195628768824161], ["'H200 SU' (unit, GLO, None)", 0.18702674081796636], ["'autoclave' (unit, DK, None)", 0.506876157665319], ["'transport' (ton kilometer, GLO, None)", 0.07138608644853299], ["'mixed heating grid' (megajoule, DK, None)", -0.031015031346015694], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0202792578963106], ["'eol MUD' (kilogram, GLO, None)", 0.034499710709571], ["'scalpel' (unit, GLO, None)", 0.4425244123494649], ["'surgery use' (unit, DK, None)", 0.1764627183544281]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.04027069925616741], ["'SUD manufacturing' (unit, GLO, None)", 0.2078211876851618], ["'SUD raw materials' (unit, GLO, None)", 0.06836056276498698], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.046295744857632874], ["'mixed heating grid' (megajoule, DK, None)", -0.0420240960839833], ["'transport' (ton kilometer, GLO, None)", 0.0028514052000598615], ["'eol SUD' (kilogram, GLO, None)", 0.0030884126118036685], ["'surgery use' (unit, DK, None)", 0.004169948683861234], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597817688167]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.04829331800127699], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00973370236375035], ["'MUD raw materials' (unit, GLO, None)", 0.0002325060984008735], ["'mechanical disinfection' (unit, DK, None)", 0.028876566279528608], ["'H200 SU' (unit, GLO, None)", 0.0299393204091784], ["'autoclave' (unit, DK, None)", 0.012213538884295912], ["'transport' (ton kilometer, GLO, None)", 0.0011663439474795636], ["'mixed heating grid' (megajoule, DK, None)", -0.00173895312552791], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0019157136620911838], ["'eol MUD' (kilogram, GLO, None)", 0.0001012841131748655], ["'scalpel' (unit, GLO, None)", 0.003063036936015497], ["'surgery use' (unit, DK, None)", 0.004169948683861234]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.0484368616938835e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.001924726244932596], ["'SUD raw materials' (unit, GLO, None)", 4.928300344234503e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.00014612527449180826], ["'mixed heating grid' (megajoule, DK, None)", -4.5472469442329e-05], ["'transport' (ton kilometer, GLO, None)", 6.466690313592197e-07], ["'eol SUD' (kilogram, GLO, None)", 7.295930750331117e-06], ["'surgery use' (unit, DK, None)", 1.420379311574698e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.30098926569959e-07]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0001877230759026985], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.105074854924437e-06], ["'MUD raw materials' (unit, GLO, None)", 1.346265878008904e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00010690829121870303], ["'H200 SU' (unit, GLO, None)", 1.8407024162458044e-06], ["'autoclave' (unit, DK, None)", 4.8240796617584186e-05], ["'transport' (ton kilometer, GLO, None)", 2.6451467183003795e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.8816464892947015e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.046650412076221e-06], ["'eol MUD' (kilogram, GLO, None)", 2.1396645181326444e-07], ["'scalpel' (unit, GLO, None)", 6.495436746108735e-06], ["'surgery use' (unit, DK, None)", 1.420379311574698e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 5.820024585604609e-06], ["'SUD manufacturing' (unit, GLO, None)", 6.042957031280478e-05], ["'SUD raw materials' (unit, GLO, None)", 9.421560890589398e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.2654931398168155e-05], ["'mixed heating grid' (megajoule, DK, None)", -4.938084910859366e-06], ["'transport' (ton kilometer, GLO, None)", 2.5460124116946924e-07], ["'eol SUD' (kilogram, GLO, None)", 2.1578754433285333e-06], ["'surgery use' (unit, DK, None)", 1.423529245625311e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762571590944e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 9.921492233096775e-05], ["'MUD packgaging materials' (kilogram, GLO, None)", 5.868571020385022e-07], ["'MUD raw materials' (unit, GLO, None)", 5.916084630368807e-08], ["'mechanical disinfection' (unit, DK, None)", 4.770289275545747e-05], ["'H200 SU' (unit, GLO, None)", 1.2364748689650626e-06], ["'autoclave' (unit, DK, None)", 3.302809721573782e-05], ["'transport' (ton kilometer, GLO, None)", 1.0414255282011866e-07], ["'mixed heating grid' (megajoule, DK, None)", -2.0433748706218853e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 5.23659896753997e-07], ["'eol MUD' (kilogram, GLO, None)", 5.73167020236193e-08], ["'scalpel' (unit, GLO, None)", 7.484962393332926e-07], ["'surgery use' (unit, DK, None)", 1.423529245625311e-06]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.003189685444835432], ["'SUD manufacturing' (unit, GLO, None)", 0.1684748135387668], ["'SUD raw materials' (unit, GLO, None)", 0.02807747846339157], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.014567010595932654], ["'mixed heating grid' (megajoule, DK, None)", -0.006696903984300831], ["'transport' (ton kilometer, GLO, None)", 0.00046867191686991185], ["'eol SUD' (kilogram, GLO, None)", 0.0050982836606269415], ["'surgery use' (unit, DK, None)", 0.001498456571971883], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779007395802606e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.01838321725189591], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0006792137679238938], ["'MUD raw materials' (unit, GLO, None)", 0.0003692023651185738], ["'mechanical disinfection' (unit, DK, None)", 0.010598425802980012], ["'H200 SU' (unit, GLO, None)", 0.001148205000920926], ["'autoclave' (unit, DK, None)", 0.004600306811209734], ["'transport' (ton kilometer, GLO, None)", 0.00019170640973208264], ["'mixed heating grid' (megajoule, DK, None)", -0.0002771172541483586], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0006027815580086571], ["'eol MUD' (kilogram, GLO, None)", 0.0001418721838339917], ["'scalpel' (unit, GLO, None)", 0.01600975933117598], ["'surgery use' (unit, DK, None)", 0.001498456571971883]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.05595965157153007], ["'SUD manufacturing' (unit, GLO, None)", 19.7840251220844], ["'SUD raw materials' (unit, GLO, None)", 0.3179891326491391], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.25998012185085084], ["'mixed heating grid' (megajoule, DK, None)", -0.18547782478241714], ["'transport' (ton kilometer, GLO, None)", 0.0071217158465409], ["'eol SUD' (kilogram, GLO, None)", 0.572115112322668], ["'surgery use' (unit, DK, None)", 0.04545673573510711], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273671141049807]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.6174091753572594], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.010173307299872418], ["'MUD raw materials' (unit, GLO, None)", 0.01622152657487586], ["'mechanical disinfection' (unit, DK, None)", 0.3265408680942775], ["'H200 SU' (unit, GLO, None)", 0.034660298193057174], ["'autoclave' (unit, DK, None)", 0.14387347306279788], ["'transport' (ton kilometer, GLO, None)", 0.0029130795486758225], ["'mixed heating grid' (megajoule, DK, None)", -0.007675054865592491], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.010757953518911609], ["'eol MUD' (kilogram, GLO, None)", 0.009933703783668254], ["'scalpel' (unit, GLO, None)", 0.04190537718031033], ["'surgery use' (unit, DK, None)", 0.04545673573510711]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.005311756436408623], ["'SUD manufacturing' (unit, GLO, None)", 0.1003765725492584], ["'SUD raw materials' (unit, GLO, None)", 0.00952574623527228], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.053258222750498276], ["'mixed heating grid' (megajoule, DK, None)", -0.012335849701462604], ["'transport' (ton kilometer, GLO, None)", 0.0001470920068953985], ["'eol SUD' (kilogram, GLO, None)", 0.00041893237368273944], ["'surgery use' (unit, DK, None)", 0.004535809469229532], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756622262221e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.051357197131515], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.0010380120180338629], ["'MUD raw materials' (unit, GLO, None)", 5.461090827967992e-05], ["'mechanical disinfection' (unit, DK, None)", 0.03115435015744096], ["'H200 SU' (unit, GLO, None)", -0.0012380226829342435], ["'autoclave' (unit, DK, None)", 0.012897365625866465], ["'transport' (ton kilometer, GLO, None)", 6.01667809126071e-05], ["'mixed heating grid' (megajoule, DK, None)", -0.0005104562951581666], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0022038203566132615], ["'eol MUD' (kilogram, GLO, None)", 1.3671574169851689e-05], ["'scalpel' (unit, GLO, None)", 0.0008099261973484278], ["'surgery use' (unit, DK, None)", 0.004535809469229532]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.014954200342589112], ["'SUD manufacturing' (unit, GLO, None)", 0.05611559785677044], ["'SUD raw materials' (unit, GLO, None)", 0.003024487453584184], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.03876521503740713], ["'mixed heating grid' (megajoule, DK, None)", -0.09561702636987693], ["'transport' (ton kilometer, GLO, None)", 0.00034491096843673524], ["'eol SUD' (kilogram, GLO, None)", 0.00018041647910851076], ["'surgery use' (unit, DK, None)", 0.003318170827793202], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.557004550695088e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.03664491752158006], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00047748539723373564], ["'MUD raw materials' (unit, GLO, None)", 4.904862389515571e-05], ["'mechanical disinfection' (unit, DK, None)", 0.022147075293565105], ["'H200 SU' (unit, GLO, None)", -0.014719066073304952], ["'autoclave' (unit, DK, None)", 0.00922208349024347], ["'transport' (ton kilometer, GLO, None)", 0.00014108300722992843], ["'mixed heating grid' (megajoule, DK, None)", -0.0039566235173099686], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0016041010310868676], ["'eol MUD' (kilogram, GLO, None)", 4.808235171683359e-06], ["'scalpel' (unit, GLO, None)", 0.0004507696197772835], ["'surgery use' (unit, DK, None)", 0.003318170827793202]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00579179470536962], ["'SUD manufacturing' (unit, GLO, None)", 0.06718159717596263], ["'SUD raw materials' (unit, GLO, None)", 0.008941787915365868], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0011929827564185062], ["'mixed heating grid' (megajoule, DK, None)", -0.0008644908190022546], ["'transport' (ton kilometer, GLO, None)", 0.00010199918303289443], ["'eol SUD' (kilogram, GLO, None)", 0.0004314847194862354], ["'surgery use' (unit, DK, None)", 0.0001855137466069453], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.33863534387416e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.002847961446316449], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00010777115707187334], ["'MUD raw materials' (unit, GLO, None)", 0.0001078390926812184], ["'mechanical disinfection' (unit, DK, None)", 0.0014413919757940935], ["'H200 SU' (unit, GLO, None)", 0.00046490664720656125], ["'autoclave' (unit, DK, None)", 0.0007567580272811053], ["'transport' (ton kilometer, GLO, None)", 4.172193056805083e-05], ["'mixed heating grid' (megajoule, DK, None)", -3.5772548413411596e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.936551668275687e-05], ["'eol MUD' (kilogram, GLO, None)", 1.4054602133955894e-05], ["'scalpel' (unit, GLO, None)", 0.001110122520410925], ["'surgery use' (unit, DK, None)", 0.0001855137466069453]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 2.2704742986419188e-08], ["'SUD manufacturing' (unit, GLO, None)", 4.869017355062117e-07], ["'SUD raw materials' (unit, GLO, None)", 8.26572336816715e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -2.0062938374588835e-07], ["'mixed heating grid' (megajoule, DK, None)", -1.4112138021433434e-07], ["'transport' (ton kilometer, GLO, None)", 4.130999009274384e-09], ["'eol SUD' (kilogram, GLO, None)", 8.589611578531815e-08], ["'surgery use' (unit, DK, None)", 1.752618614827343e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955181501371e-10]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 2.201578590592355e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.0403630097179835e-09], ["'MUD raw materials' (unit, GLO, None)", 2.516541988320809e-09], ["'mechanical disinfection' (unit, DK, None)", 1.2915692181127275e-07], ["'H200 SU' (unit, GLO, None)", -1.347938442899113e-08], ["'autoclave' (unit, DK, None)", 5.773057526452944e-08], ["'transport' (ton kilometer, GLO, None)", 1.6897513167928925e-09], ["'mixed heating grid' (megajoule, DK, None)", -5.839589380152313e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 8.302025437561673e-09], ["'eol MUD' (kilogram, GLO, None)", 2.1287387400918977e-09], ["'scalpel' (unit, GLO, None)", 3.68517694591309e-09], ["'surgery use' (unit, DK, None)", 1.752618614827343e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 9.911420069117902e-05], ["'SUD manufacturing' (unit, GLO, None)", 0.005053974080338791], ["'SUD raw materials' (unit, GLO, None)", 0.0007740388451165705], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0001450442523009694], ["'mixed heating grid' (megajoule, DK, None)", -0.00021395696386951449], ["'transport' (ton kilometer, GLO, None)", 6.510637703484151e-06], ["'eol SUD' (kilogram, GLO, None)", 2.013581028923245e-05], ["'surgery use' (unit, DK, None)", 1.849325345135456e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879441600332931e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.000236753576941624], ["'MUD packgaging materials' (kilogram, GLO, None)", 2.0725125684628905e-05], ["'MUD raw materials' (unit, GLO, None)", 2.408276522791094e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00013032167491861855], ["'H200 SU' (unit, GLO, None)", 4.493761151872135e-05], ["'autoclave' (unit, DK, None)", 5.750471170547061e-05], ["'transport' (ton kilometer, GLO, None)", 2.6631230382590196e-06], ["'mixed heating grid' (megajoule, DK, None)", -8.853518950313806e-06], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 6.0019178132945805e-06], ["'eol MUD' (kilogram, GLO, None)", 6.186158445740857e-07], ["'scalpel' (unit, GLO, None)", 4.305806854127016e-05], ["'surgery use' (unit, DK, None)", 1.849325345135456e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.000189870349051378], ["'SUD manufacturing' (unit, GLO, None)", 0.003514347716251312], ["'SUD raw materials' (unit, GLO, None)", 0.0004064415385391274], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003542830888926314], ["'mixed heating grid' (megajoule, DK, None)", -0.0005317124792424973], ["'transport' (ton kilometer, GLO, None)", 1.4408455135701966e-05], ["'eol SUD' (kilogram, GLO, None)", 9.597144296532227e-05], ["'surgery use' (unit, DK, None)", 3.418728410494557e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969026067968775e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004059579844702151], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.009290563318413e-05], ["'MUD raw materials' (unit, GLO, None)", 4.763020625006013e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00023787040301443004], ["'H200 SU' (unit, GLO, None)", 6.281545387307815e-05], ["'autoclave' (unit, DK, None)", 0.0001019914690270812], ["'transport' (ton kilometer, GLO, None)", 5.8936605852104145e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.2002212154976902e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4660201617375635e-05], ["'eol MUD' (kilogram, GLO, None)", 2.909350559029343e-06], ["'scalpel' (unit, GLO, None)", 3.349725577019415e-05], ["'surgery use' (unit, DK, None)", 3.418728410494557e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.00020532076363626614], ["'SUD manufacturing' (unit, GLO, None)", 0.003606848213761314], ["'SUD raw materials' (unit, GLO, None)", 0.0004353569221436966], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0003622795768823582], ["'mixed heating grid' (megajoule, DK, None)", -0.0005505276165308838], ["'transport' (ton kilometer, GLO, None)", 1.630040075700279e-05], ["'eol SUD' (kilogram, GLO, None)", 9.748421792418201e-05], ["'surgery use' (unit, DK, None)", 3.503057302187168e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497880341698299e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.0004162493218654789], ["'MUD packgaging materials' (kilogram, GLO, None)", 4.3724633000082706e-05], ["'MUD raw materials' (unit, GLO, None)", 4.88288627804957e-06], ["'mechanical disinfection' (unit, DK, None)", 0.00024386395964847143], ["'H200 SU' (unit, GLO, None)", 6.852231876563365e-05], ["'autoclave' (unit, DK, None)", 0.00010458794211740532], ["'transport' (ton kilometer, GLO, None)", 6.667545448827255e-06], ["'mixed heating grid' (megajoule, DK, None)", -2.278078075832032e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.4991095554556603e-05], ["'eol MUD' (kilogram, GLO, None)", 2.957605618303939e-06], ["'scalpel' (unit, GLO, None)", 3.501497967854909e-05], ["'surgery use' (unit, DK, None)", 3.503057302187168e-05]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.0013558758422866962], ["'SUD manufacturing' (unit, GLO, None)", 0.01085671400986913], ["'SUD raw materials' (unit, GLO, None)", 0.004321421027783139], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.0031790866047725665], ["'mixed heating grid' (megajoule, DK, None)", -0.0009914765746544963], ["'transport' (ton kilometer, GLO, None)", 1.4729126867939024e-05], ["'eol SUD' (kilogram, GLO, None)", 0.00042055943744630795], ["'surgery use' (unit, DK, None)", 0.0002884118904535188], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.52196178074362e-06]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.003411111265571114], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.00024736313312150504], ["'MUD raw materials' (unit, GLO, None)", 7.773106065791065e-06], ["'mechanical disinfection' (unit, DK, None)", 0.002000101306812383], ["'H200 SU' (unit, GLO, None)", 0.000274315510089186], ["'autoclave' (unit, DK, None)", 0.0008926026121713046], ["'transport' (ton kilometer, GLO, None)", 6.024828731363275e-06], ["'mixed heating grid' (megajoule, DK, None)", -4.102720698471521e-05], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.0001315503111670915], ["'eol MUD' (kilogram, GLO, None)", 1.2165982237741898e-05], ["'scalpel' (unit, GLO, None)", 9.84318822878666e-05], ["'surgery use' (unit, DK, None)", 0.0002884118904535188]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 4.2850466931794496e-10], ["'SUD manufacturing' (unit, GLO, None)", 9.739542927274524e-09], ["'SUD raw materials' (unit, GLO, None)", 1.130508744314818e-09], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -1.085776032342358e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.4815589046162885e-09], ["'transport' (ton kilometer, GLO, None)", 3.576920575216695e-11], ["'eol SUD' (kilogram, GLO, None)", 1.2516833613926134e-09], ["'surgery use' (unit, DK, None)", 1.051771965124005e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483083932121868e-12]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 1.23839086254744e-09], ["'MUD packgaging materials' (kilogram, GLO, None)", 6.929600227049128e-11], ["'MUD raw materials' (unit, GLO, None)", 6.474216383624438e-12], ["'mechanical disinfection' (unit, DK, None)", 7.260635607893175e-10], ["'H200 SU' (unit, GLO, None)", 1.4508228531336375e-10], ["'autoclave' (unit, DK, None)", 3.101426495157299e-10], ["'transport' (ton kilometer, GLO, None)", 1.4631100705825773e-11], ["'mixed heating grid' (megajoule, DK, None)", -6.130676749566385e-11], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 4.492931230560975e-11], ["'eol MUD' (kilogram, GLO, None)", 4.2344930821394286e-11], ["'scalpel' (unit, GLO, None)", 6.948553802091968e-11], ["'surgery use' (unit, DK, None)", 1.051771965124005e-10]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 1.5691842803623625e-07], ["'SUD manufacturing' (unit, GLO, None)", 8.97774464912905e-06], ["'SUD raw materials' (unit, GLO, None)", 8.151527910497161e-07], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -3.6989103368268095e-07], ["'mixed heating grid' (megajoule, DK, None)", -3.3802062984348617e-07], ["'transport' (ton kilometer, GLO, None)", 1.571758953144369e-08], ["'eol SUD' (kilogram, GLO, None)", 5.52407811101635e-07], ["'surgery use' (unit, DK, None)", 4.273809298605403e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787753865770907e-09]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 5.332314600694089e-07], ["'MUD packgaging materials' (kilogram, GLO, None)", 3.3442147684036134e-08], ["'MUD raw materials' (unit, GLO, None)", 7.302800147716167e-09], ["'mechanical disinfection' (unit, DK, None)", 3.0054240055312007e-07], ["'H200 SU' (unit, GLO, None)", 1.2019630742842794e-07], ["'autoclave' (unit, DK, None)", 1.306830902192406e-07], ["'transport' (ton kilometer, GLO, None)", 6.4291512895405546e-09], ["'mixed heating grid' (megajoule, DK, None)", -1.3987261726808987e-08], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 1.5306056936550466e-08], ["'eol MUD' (kilogram, GLO, None)", 1.6553888439266556e-08], ["'scalpel' (unit, GLO, None)", 1.019560643663885e-07], ["'surgery use' (unit, DK, None)", 4.273809298605403e-08]]</t>
+  </si>
+  <si>
+    <t>[["'SUD packgaging materials' (kilogram, GLO, None)", 0.01622634964532303], ["'SUD manufacturing' (unit, GLO, None)", 0.06571187206538003], ["'SUD raw materials' (unit, GLO, None)", 0.02624265179334911], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", -0.008643952133745749], ["'mixed heating grid' (megajoule, DK, None)", -0.012837634289222166], ["'transport' (ton kilometer, GLO, None)", 0.0012316580584188505], ["'eol SUD' (kilogram, GLO, None)", 0.0012210153756971479], ["'surgery use' (unit, DK, None)", 0.000824189766865019], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.684475948454869e-05]]</t>
+  </si>
+  <si>
+    <t>[["'MUD manufacturing' (unit, GLO, None)", 0.00996786639411429], ["'MUD packgaging materials' (kilogram, GLO, None)", 0.003652386516472763], ["'MUD raw materials' (unit, GLO, None)", 9.17814048330514e-05], ["'mechanical disinfection' (unit, DK, None)", 0.005860581357944769], ["'H200 SU' (unit, GLO, None)", 0.012204217391924402], ["'autoclave' (unit, DK, None)", 0.002531834602448015], ["'transport' (ton kilometer, GLO, None)", 0.0005037996429869381], ["'mixed heating grid' (megajoule, DK, None)", -0.0005312200939911601], ["'market for electricity, high voltage' (kilowatt hour, DK, None)", 0.00035768594388105616], ["'eol MUD' (kilogram, GLO, None)", 4.020532716783766e-05], ["'scalpel' (unit, GLO, None)", 0.000955931482907741], ["'surgery use' (unit, DK, None)", 0.000824189766865019]]</t>
   </si>
 </sst>
 </file>
